--- a/pipelines/cdi_ca_1924-55_wk_prov_dbs_statcan/digitizations/cdi_cp_ca_1924-55_wk_prov.xlsx
+++ b/pipelines/cdi_ca_1924-55_wk_prov_dbs_statcan/digitizations/cdi_cp_ca_1924-55_wk_prov.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stevenwalker/Development/iidda-staging/pipelines/cdi_ca_1924-55_wk_prov_dbs_statcan/digitizations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stevenwalker/Development/iidda/pipelines/cdi_ca_1924-55_wk_prov_dbs_statcan/digitizations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785280EB-ACC7-074C-9CDE-721B5DBBCEC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9DC19AE-6483-2645-9F1A-418DC02241B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="21600" windowWidth="28800" windowHeight="18000" xr2:uid="{D7BDF8E5-0784-A641-BF65-747127882FC5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{D7BDF8E5-0784-A641-BF65-747127882FC5}"/>
   </bookViews>
   <sheets>
     <sheet name="1924" sheetId="1" r:id="rId1"/>
@@ -871,9 +871,6 @@
     <t>Time taken:</t>
   </si>
   <si>
-    <t>Entered by:</t>
-  </si>
-  <si>
     <t>1924-1955wklyincidCP.pdf</t>
   </si>
   <si>
@@ -911,6 +908,9 @@
   </si>
   <si>
     <t>_</t>
+  </si>
+  <si>
+    <t>Created by:</t>
   </si>
 </sst>
 </file>
@@ -2014,9 +2014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E4063D4-060E-FC49-AEA3-B7C97AFEC10E}">
   <dimension ref="A1:V63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="118" workbookViewId="0">
-      <selection activeCell="L52" sqref="L52"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -4281,7 +4279,7 @@
     </row>
     <row r="61" spans="1:22">
       <c r="B61" s="28" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="C61" s="28" t="s">
         <v>36</v>
@@ -4293,7 +4291,7 @@
         <v>16</v>
       </c>
       <c r="C62" s="32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D62" s="32"/>
     </row>
@@ -4302,7 +4300,7 @@
         <v>266</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D63" s="28"/>
     </row>
@@ -7133,7 +7131,7 @@
     </row>
     <row r="61" spans="1:22">
       <c r="B61" s="28" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="C61" s="28" t="s">
         <v>36</v>
@@ -7145,7 +7143,7 @@
         <v>16</v>
       </c>
       <c r="C62" s="32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D62" s="32"/>
     </row>
@@ -7154,7 +7152,7 @@
         <v>266</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D63" s="28"/>
     </row>
@@ -9985,7 +9983,7 @@
     </row>
     <row r="61" spans="1:22">
       <c r="B61" s="28" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="C61" s="28" t="s">
         <v>36</v>
@@ -9997,7 +9995,7 @@
         <v>16</v>
       </c>
       <c r="C62" s="32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D62" s="32"/>
     </row>
@@ -10006,7 +10004,7 @@
         <v>266</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D63" s="28"/>
     </row>
@@ -12827,7 +12825,7 @@
     </row>
     <row r="61" spans="1:22">
       <c r="B61" s="28" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="C61" s="28" t="s">
         <v>36</v>
@@ -12839,7 +12837,7 @@
         <v>16</v>
       </c>
       <c r="C62" s="32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D62" s="32"/>
     </row>
@@ -12848,7 +12846,7 @@
         <v>266</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D63" s="28"/>
     </row>
@@ -15691,7 +15689,7 @@
     </row>
     <row r="61" spans="1:22">
       <c r="B61" s="28" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="C61" s="28" t="s">
         <v>36</v>
@@ -15712,7 +15710,7 @@
         <v>266</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D63" s="28"/>
     </row>
@@ -18513,7 +18511,7 @@
     </row>
     <row r="61" spans="1:22">
       <c r="B61" s="28" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="C61" s="28" t="s">
         <v>36</v>
@@ -18534,7 +18532,7 @@
         <v>266</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D63" s="28"/>
     </row>
@@ -21429,7 +21427,7 @@
     </row>
     <row r="61" spans="1:22">
       <c r="B61" s="28" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="C61" s="28" t="s">
         <v>36</v>
@@ -21450,7 +21448,7 @@
         <v>266</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D63" s="28"/>
     </row>
@@ -24327,7 +24325,7 @@
     </row>
     <row r="61" spans="1:22">
       <c r="B61" s="28" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="C61" s="28" t="s">
         <v>36</v>
@@ -24348,7 +24346,7 @@
         <v>266</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D63" s="28"/>
     </row>
@@ -27245,7 +27243,7 @@
     </row>
     <row r="61" spans="1:22">
       <c r="B61" s="28" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="C61" s="28" t="s">
         <v>36</v>
@@ -27266,7 +27264,7 @@
         <v>266</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D63" s="28"/>
     </row>
@@ -30117,7 +30115,7 @@
     </row>
     <row r="61" spans="1:22">
       <c r="B61" s="28" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="C61" s="28" t="s">
         <v>36</v>
@@ -30138,7 +30136,7 @@
         <v>266</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D63" s="28"/>
     </row>
@@ -33047,7 +33045,7 @@
     </row>
     <row r="61" spans="1:22">
       <c r="B61" s="28" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="C61" s="28" t="s">
         <v>36</v>
@@ -33068,7 +33066,7 @@
         <v>266</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D63" s="28"/>
     </row>
@@ -35511,7 +35509,7 @@
     </row>
     <row r="61" spans="1:22">
       <c r="B61" s="28" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="C61" s="28" t="s">
         <v>36</v>
@@ -35523,7 +35521,7 @@
         <v>16</v>
       </c>
       <c r="C62" s="32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D62" s="32"/>
     </row>
@@ -35532,7 +35530,7 @@
         <v>266</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D63" s="28"/>
     </row>
@@ -38451,7 +38449,7 @@
     </row>
     <row r="61" spans="1:22">
       <c r="B61" s="28" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="C61" s="28" t="s">
         <v>36</v>
@@ -38472,7 +38470,7 @@
         <v>266</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D63" s="28"/>
     </row>
@@ -41367,7 +41365,7 @@
     </row>
     <row r="61" spans="1:22">
       <c r="B61" s="28" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="C61" s="28" t="s">
         <v>36</v>
@@ -41388,7 +41386,7 @@
         <v>266</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D63" s="28"/>
     </row>
@@ -41601,10 +41599,10 @@
         <v>119</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E5" s="10">
         <v>16</v>
@@ -41613,7 +41611,7 @@
         <v>46</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H5" s="11">
         <v>1</v>
@@ -41669,7 +41667,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="12">
@@ -41677,7 +41675,7 @@
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="12">
@@ -41717,7 +41715,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="12">
@@ -41765,7 +41763,7 @@
         <v>27</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="12">
@@ -41773,7 +41771,7 @@
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="12">
@@ -41813,10 +41811,10 @@
         <v>120</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E9" s="12">
         <v>21</v>
@@ -41879,7 +41877,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="12">
@@ -41927,7 +41925,7 @@
         <v>17</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="12">
@@ -41935,7 +41933,7 @@
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="12">
@@ -41975,7 +41973,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="12">
@@ -42023,10 +42021,10 @@
         <v>261</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E13" s="12">
         <v>1</v>
@@ -42091,7 +42089,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="12">
@@ -42099,7 +42097,7 @@
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="12">
@@ -42139,7 +42137,7 @@
         <v>17</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="12">
@@ -42147,7 +42145,7 @@
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H15" s="13"/>
       <c r="I15" s="12">
@@ -42187,7 +42185,7 @@
         <v>24</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="12">
@@ -42235,7 +42233,7 @@
         <v>31</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="12">
@@ -42243,7 +42241,7 @@
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H17" s="13"/>
       <c r="I17" s="12">
@@ -42283,10 +42281,10 @@
         <v>84</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E18" s="12">
         <v>14</v>
@@ -42295,7 +42293,7 @@
         <v>90</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H18" s="13">
         <v>2</v>
@@ -42351,7 +42349,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="12">
@@ -42399,7 +42397,7 @@
         <v>21</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="12">
@@ -42447,7 +42445,7 @@
         <v>28</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="12">
@@ -42455,7 +42453,7 @@
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H21" s="13"/>
       <c r="I21" s="12">
@@ -42495,10 +42493,10 @@
         <v>85</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E22" s="12">
         <v>22</v>
@@ -42507,7 +42505,7 @@
         <v>98</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H22" s="13">
         <v>1</v>
@@ -42563,7 +42561,7 @@
         <v>12</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="12">
@@ -42571,7 +42569,7 @@
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="12">
@@ -42611,7 +42609,7 @@
         <v>19</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="12">
@@ -42619,7 +42617,7 @@
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="12">
@@ -42659,7 +42657,7 @@
         <v>26</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="12">
@@ -42707,7 +42705,7 @@
         <v>86</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D26" s="13">
         <v>42</v>
@@ -42871,7 +42869,7 @@
         <v>23</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="12">
@@ -42967,10 +42965,10 @@
         <v>88</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E31" s="12">
         <v>8</v>
@@ -42979,7 +42977,7 @@
         <v>92</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H31" s="13">
         <v>14</v>
@@ -43035,7 +43033,7 @@
         <v>14</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="12">
@@ -43083,7 +43081,7 @@
         <v>21</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="12">
@@ -43131,7 +43129,7 @@
         <v>27</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="12">
@@ -43139,7 +43137,7 @@
       </c>
       <c r="F34" s="13"/>
       <c r="G34" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H34" s="13"/>
       <c r="I34" s="12">
@@ -43179,10 +43177,10 @@
         <v>89</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E35" s="12">
         <v>1</v>
@@ -43191,10 +43189,10 @@
         <v>5</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I35" s="12">
         <v>19</v>
@@ -43247,7 +43245,7 @@
         <v>11</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="12">
@@ -43255,7 +43253,7 @@
       </c>
       <c r="F36" s="13"/>
       <c r="G36" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H36" s="13"/>
       <c r="I36" s="12">
@@ -43295,7 +43293,7 @@
         <v>18</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="12">
@@ -43303,7 +43301,7 @@
       </c>
       <c r="F37" s="13"/>
       <c r="G37" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="12">
@@ -43343,7 +43341,7 @@
         <v>47</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="12">
@@ -43351,7 +43349,7 @@
       </c>
       <c r="F38" s="13"/>
       <c r="G38" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H38" s="13"/>
       <c r="I38" s="12">
@@ -43391,22 +43389,22 @@
         <v>90</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F39" s="13">
         <v>10</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I39" s="12">
         <v>16</v>
@@ -43459,7 +43457,7 @@
         <v>8</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="12">
@@ -43467,7 +43465,7 @@
       </c>
       <c r="F40" s="13"/>
       <c r="G40" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H40" s="13"/>
       <c r="I40" s="12">
@@ -43507,15 +43505,15 @@
         <v>15</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F41" s="13"/>
       <c r="G41" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H41" s="13"/>
       <c r="I41" s="12">
@@ -43555,7 +43553,7 @@
         <v>22</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="12">
@@ -43563,7 +43561,7 @@
       </c>
       <c r="F42" s="13"/>
       <c r="G42" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H42" s="13"/>
       <c r="I42" s="12">
@@ -43603,7 +43601,7 @@
         <v>29</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="12">
@@ -43611,7 +43609,7 @@
       </c>
       <c r="F43" s="13"/>
       <c r="G43" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H43" s="13"/>
       <c r="I43" s="12">
@@ -43651,10 +43649,10 @@
         <v>91</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E44" s="12">
         <v>1</v>
@@ -43663,7 +43661,7 @@
         <v>21</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H44" s="13">
         <v>1</v>
@@ -43719,7 +43717,7 @@
         <v>13</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="12">
@@ -43727,7 +43725,7 @@
       </c>
       <c r="F45" s="13"/>
       <c r="G45" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H45" s="13"/>
       <c r="I45" s="12">
@@ -43767,7 +43765,7 @@
         <v>20</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="12">
@@ -43775,7 +43773,7 @@
       </c>
       <c r="F46" s="13"/>
       <c r="G46" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H46" s="13"/>
       <c r="I46" s="12">
@@ -43815,7 +43813,7 @@
         <v>27</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D47" s="13"/>
       <c r="E47" s="12">
@@ -43863,10 +43861,10 @@
         <v>92</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E48" s="12">
         <v>12</v>
@@ -43917,7 +43915,7 @@
         <v>421</v>
       </c>
       <c r="U48" s="24" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="V48" s="13">
         <v>3181</v>
@@ -43931,7 +43929,7 @@
         <v>10</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="12">
@@ -43939,7 +43937,7 @@
       </c>
       <c r="F49" s="13"/>
       <c r="G49" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H49" s="13"/>
       <c r="I49" s="12">
@@ -43967,7 +43965,7 @@
       </c>
       <c r="T49" s="13"/>
       <c r="U49" s="24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="V49" s="13"/>
     </row>
@@ -43979,7 +43977,7 @@
         <v>17</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="12">
@@ -44027,7 +44025,7 @@
         <v>24</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="12">
@@ -44035,7 +44033,7 @@
       </c>
       <c r="F51" s="13"/>
       <c r="G51" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H51" s="13"/>
       <c r="I51" s="12">
@@ -44063,7 +44061,7 @@
       </c>
       <c r="T51" s="13"/>
       <c r="U51" s="24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="V51" s="13"/>
     </row>
@@ -44075,10 +44073,10 @@
         <v>93</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E52" s="12">
         <v>30</v>
@@ -44087,7 +44085,7 @@
         <v>71</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H52" s="13">
         <v>2</v>
@@ -44129,7 +44127,7 @@
         <v>621</v>
       </c>
       <c r="U52" s="24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="V52" s="13">
         <v>4383</v>
@@ -44143,7 +44141,7 @@
         <v>8</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="12">
@@ -44191,7 +44189,7 @@
         <v>15</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="12">
@@ -44199,7 +44197,7 @@
       </c>
       <c r="F54" s="13"/>
       <c r="G54" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H54" s="13"/>
       <c r="I54" s="12">
@@ -44239,7 +44237,7 @@
         <v>22</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D55" s="13"/>
       <c r="E55" s="12">
@@ -44247,7 +44245,7 @@
       </c>
       <c r="F55" s="13"/>
       <c r="G55" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H55" s="13"/>
       <c r="I55" s="12">
@@ -44287,7 +44285,7 @@
         <v>29</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="12">
@@ -44295,7 +44293,7 @@
       </c>
       <c r="F56" s="13"/>
       <c r="G56" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H56" s="13"/>
       <c r="I56" s="12">
@@ -44333,7 +44331,7 @@
       </c>
       <c r="B57" s="19"/>
       <c r="C57" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="12"/>
@@ -44455,7 +44453,7 @@
     </row>
     <row r="61" spans="1:22">
       <c r="B61" s="28" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="C61" s="28" t="s">
         <v>36</v>
@@ -44476,7 +44474,7 @@
         <v>266</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D63" s="28"/>
     </row>
@@ -44511,7 +44509,7 @@
   <dimension ref="A1:V63"/>
   <sheetViews>
     <sheetView topLeftCell="A33" zoomScale="75" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -44689,10 +44687,10 @@
         <v>21</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E5" s="10">
         <v>6</v>
@@ -44701,7 +44699,7 @@
         <v>73</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H5" s="11">
         <v>2</v>
@@ -44757,7 +44755,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="12">
@@ -44805,7 +44803,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="12">
@@ -44813,7 +44811,7 @@
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="12">
@@ -44853,7 +44851,7 @@
         <v>26</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="12">
@@ -44901,10 +44899,10 @@
         <v>22</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E9" s="12">
         <v>8</v>
@@ -44913,7 +44911,7 @@
         <v>34</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H9" s="13">
         <v>4</v>
@@ -44969,7 +44967,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="12">
@@ -44977,7 +44975,7 @@
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="12">
@@ -45017,7 +45015,7 @@
         <v>16</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="12">
@@ -45025,7 +45023,7 @@
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="12">
@@ -45065,7 +45063,7 @@
         <v>23</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="12">
@@ -45113,10 +45111,10 @@
         <v>94</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E13" s="12">
         <v>8</v>
@@ -45125,10 +45123,10 @@
         <v>29</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I13" s="12">
         <v>69</v>
@@ -45181,7 +45179,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="12">
@@ -45189,7 +45187,7 @@
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="12">
@@ -45229,7 +45227,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="12">
@@ -45237,7 +45235,7 @@
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H15" s="13"/>
       <c r="I15" s="12">
@@ -45277,7 +45275,7 @@
         <v>23</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="12">
@@ -45285,7 +45283,7 @@
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H16" s="13"/>
       <c r="I16" s="12">
@@ -45325,7 +45323,7 @@
         <v>30</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="12">
@@ -45333,7 +45331,7 @@
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H17" s="13"/>
       <c r="I17" s="12">
@@ -45373,10 +45371,10 @@
         <v>95</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E18" s="12">
         <v>36</v>
@@ -45385,10 +45383,10 @@
         <v>66</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I18" s="12">
         <v>107</v>
@@ -45441,7 +45439,7 @@
         <v>13</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="12">
@@ -45449,7 +45447,7 @@
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H19" s="13"/>
       <c r="I19" s="12">
@@ -45489,7 +45487,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="12">
@@ -45497,7 +45495,7 @@
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H20" s="13"/>
       <c r="I20" s="12">
@@ -45537,7 +45535,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="12">
@@ -45545,7 +45543,7 @@
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H21" s="13"/>
       <c r="I21" s="12">
@@ -45585,10 +45583,10 @@
         <v>96</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E22" s="12">
         <v>15</v>
@@ -45597,10 +45595,10 @@
         <v>68</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I22" s="12">
         <v>155</v>
@@ -45653,7 +45651,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="12">
@@ -45661,7 +45659,7 @@
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="12">
@@ -45701,7 +45699,7 @@
         <v>18</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="12">
@@ -45709,7 +45707,7 @@
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="12">
@@ -45749,7 +45747,7 @@
         <v>25</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="12">
@@ -45757,7 +45755,7 @@
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="12">
@@ -45797,10 +45795,10 @@
         <v>97</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E26" s="12">
         <v>44</v>
@@ -45809,7 +45807,7 @@
         <v>218</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H26" s="13">
         <v>1</v>
@@ -45865,7 +45863,7 @@
         <v>99</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="12">
@@ -45873,7 +45871,7 @@
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="12">
@@ -45913,7 +45911,7 @@
         <v>15</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="12">
@@ -45921,7 +45919,7 @@
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H28" s="13"/>
       <c r="I28" s="12">
@@ -45961,7 +45959,7 @@
         <v>22</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="12">
@@ -45969,7 +45967,7 @@
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="12">
@@ -46009,7 +46007,7 @@
         <v>51</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="12">
@@ -46057,10 +46055,10 @@
         <v>98</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E31" s="12">
         <v>35</v>
@@ -46069,10 +46067,10 @@
         <v>79</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I31" s="12">
         <v>66</v>
@@ -46125,7 +46123,7 @@
         <v>13</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="12">
@@ -46133,7 +46131,7 @@
       </c>
       <c r="F32" s="13"/>
       <c r="G32" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H32" s="13"/>
       <c r="I32" s="12">
@@ -46173,7 +46171,7 @@
         <v>20</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="12">
@@ -46181,7 +46179,7 @@
       </c>
       <c r="F33" s="13"/>
       <c r="G33" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H33" s="13"/>
       <c r="I33" s="12">
@@ -46221,7 +46219,7 @@
         <v>45</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="12">
@@ -46229,7 +46227,7 @@
       </c>
       <c r="F34" s="13"/>
       <c r="G34" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H34" s="13"/>
       <c r="I34" s="12">
@@ -46269,10 +46267,10 @@
         <v>100</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E35" s="12">
         <v>15</v>
@@ -46281,10 +46279,10 @@
         <v>38</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I35" s="12">
         <v>29</v>
@@ -46337,7 +46335,7 @@
         <v>10</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="12">
@@ -46345,7 +46343,7 @@
       </c>
       <c r="F36" s="13"/>
       <c r="G36" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H36" s="13"/>
       <c r="I36" s="12">
@@ -46385,7 +46383,7 @@
         <v>17</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="12">
@@ -46393,7 +46391,7 @@
       </c>
       <c r="F37" s="13"/>
       <c r="G37" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="12">
@@ -46433,7 +46431,7 @@
         <v>105</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="12">
@@ -46441,7 +46439,7 @@
       </c>
       <c r="F38" s="13"/>
       <c r="G38" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H38" s="13"/>
       <c r="I38" s="12">
@@ -46481,15 +46479,15 @@
         <v>38</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F39" s="13"/>
       <c r="G39" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H39" s="13"/>
       <c r="I39" s="12">
@@ -46529,10 +46527,10 @@
         <v>101</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E40" s="12">
         <v>4</v>
@@ -46541,7 +46539,7 @@
         <v>11</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H40" s="13">
         <v>2</v>
@@ -46597,7 +46595,7 @@
         <v>14</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="12">
@@ -46605,7 +46603,7 @@
       </c>
       <c r="F41" s="13"/>
       <c r="G41" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H41" s="13"/>
       <c r="I41" s="12">
@@ -46645,7 +46643,7 @@
         <v>21</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="12">
@@ -46653,7 +46651,7 @@
       </c>
       <c r="F42" s="13"/>
       <c r="G42" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H42" s="13"/>
       <c r="I42" s="12">
@@ -46693,11 +46691,11 @@
         <v>28</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F43" s="13"/>
       <c r="G43" s="12">
@@ -46741,10 +46739,10 @@
         <v>102</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E44" s="12">
         <v>9</v>
@@ -46753,7 +46751,7 @@
         <v>28</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H44" s="13">
         <v>1</v>
@@ -46809,7 +46807,7 @@
         <v>12</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="12">
@@ -46817,7 +46815,7 @@
       </c>
       <c r="F45" s="13"/>
       <c r="G45" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H45" s="13"/>
       <c r="I45" s="12">
@@ -46857,7 +46855,7 @@
         <v>19</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="12">
@@ -46865,7 +46863,7 @@
       </c>
       <c r="F46" s="13"/>
       <c r="G46" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H46" s="13"/>
       <c r="I46" s="12">
@@ -46905,7 +46903,7 @@
         <v>26</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D47" s="13"/>
       <c r="E47" s="12">
@@ -46953,10 +46951,10 @@
         <v>103</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E48" s="12">
         <v>20</v>
@@ -47021,7 +47019,7 @@
         <v>9</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="12">
@@ -47069,7 +47067,7 @@
         <v>16</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="12">
@@ -47117,7 +47115,7 @@
         <v>23</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="12">
@@ -47125,7 +47123,7 @@
       </c>
       <c r="F51" s="13"/>
       <c r="G51" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H51" s="13"/>
       <c r="I51" s="12">
@@ -47165,7 +47163,7 @@
         <v>30</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="12">
@@ -47213,10 +47211,10 @@
         <v>104</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E53" s="12">
         <v>29</v>
@@ -47225,7 +47223,7 @@
         <v>104</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H53" s="13">
         <v>2</v>
@@ -47281,7 +47279,7 @@
         <v>14</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="12">
@@ -47329,7 +47327,7 @@
         <v>21</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D55" s="13"/>
       <c r="E55" s="12">
@@ -47337,7 +47335,7 @@
       </c>
       <c r="F55" s="13"/>
       <c r="G55" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H55" s="13"/>
       <c r="I55" s="12">
@@ -47377,7 +47375,7 @@
         <v>28</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="12">
@@ -47475,7 +47473,7 @@
         <v>11</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="17">
@@ -47535,7 +47533,7 @@
     </row>
     <row r="61" spans="1:22">
       <c r="B61" s="28" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="C61" s="28" t="s">
         <v>36</v>
@@ -47556,7 +47554,7 @@
         <v>266</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D63" s="28"/>
     </row>
@@ -47769,7 +47767,7 @@
         <v>106</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D5" s="11">
         <v>1</v>
@@ -47885,7 +47883,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="12">
@@ -47933,7 +47931,7 @@
         <v>25</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="12">
@@ -47981,10 +47979,10 @@
         <v>107</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E9" s="12">
         <v>36</v>
@@ -48049,7 +48047,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="12">
@@ -48057,7 +48055,7 @@
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="12">
@@ -48097,7 +48095,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="12">
@@ -48105,7 +48103,7 @@
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="12">
@@ -48145,7 +48143,7 @@
         <v>22</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="12">
@@ -48193,10 +48191,10 @@
         <v>23</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E13" s="12">
         <v>41</v>
@@ -48261,7 +48259,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="12">
@@ -48309,7 +48307,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="12">
@@ -48317,7 +48315,7 @@
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H15" s="13"/>
       <c r="I15" s="12">
@@ -48357,7 +48355,7 @@
         <v>22</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="12">
@@ -48365,7 +48363,7 @@
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H16" s="13"/>
       <c r="I16" s="12">
@@ -48405,7 +48403,7 @@
         <v>29</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="12">
@@ -48529,7 +48527,7 @@
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H19" s="13"/>
       <c r="I19" s="12">
@@ -48569,7 +48567,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="12">
@@ -48577,7 +48575,7 @@
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H20" s="13"/>
       <c r="I20" s="12">
@@ -48617,7 +48615,7 @@
         <v>26</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="12">
@@ -48625,7 +48623,7 @@
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H21" s="13"/>
       <c r="I21" s="12">
@@ -48677,7 +48675,7 @@
         <v>140</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H22" s="13">
         <v>1</v>
@@ -48733,7 +48731,7 @@
         <v>10</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="12">
@@ -48741,7 +48739,7 @@
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="12">
@@ -48781,7 +48779,7 @@
         <v>17</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="12">
@@ -48789,7 +48787,7 @@
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="12">
@@ -48829,7 +48827,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="12">
@@ -48837,7 +48835,7 @@
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="12">
@@ -48877,7 +48875,7 @@
         <v>31</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="12">
@@ -48925,10 +48923,10 @@
         <v>26</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E27" s="12">
         <v>63</v>
@@ -48937,7 +48935,7 @@
         <v>170</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H27" s="13">
         <v>3</v>
@@ -48993,7 +48991,7 @@
         <v>14</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="12">
@@ -49041,7 +49039,7 @@
         <v>21</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="12">
@@ -49089,7 +49087,7 @@
         <v>27</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="12">
@@ -49137,10 +49135,10 @@
         <v>28</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E31" s="12">
         <v>18</v>
@@ -49149,7 +49147,7 @@
         <v>103</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H31" s="13">
         <v>9</v>
@@ -49205,7 +49203,7 @@
         <v>12</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="12">
@@ -49253,7 +49251,7 @@
         <v>19</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="12">
@@ -49301,7 +49299,7 @@
         <v>61</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="12">
@@ -49349,10 +49347,10 @@
         <v>29</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E35" s="12">
         <v>2</v>
@@ -49361,10 +49359,10 @@
         <v>20</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I35" s="12">
         <v>19</v>
@@ -49417,7 +49415,7 @@
         <v>9</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="12">
@@ -49425,7 +49423,7 @@
       </c>
       <c r="F36" s="13"/>
       <c r="G36" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H36" s="13"/>
       <c r="I36" s="12">
@@ -49465,7 +49463,7 @@
         <v>16</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="12">
@@ -49473,7 +49471,7 @@
       </c>
       <c r="F37" s="13"/>
       <c r="G37" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="12">
@@ -49513,7 +49511,7 @@
         <v>30</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="12">
@@ -49521,7 +49519,7 @@
       </c>
       <c r="F38" s="13"/>
       <c r="G38" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H38" s="13"/>
       <c r="I38" s="12">
@@ -49561,7 +49559,7 @@
         <v>20</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="12">
@@ -49569,7 +49567,7 @@
       </c>
       <c r="F39" s="13"/>
       <c r="G39" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H39" s="13"/>
       <c r="I39" s="12">
@@ -49609,10 +49607,10 @@
         <v>31</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E40" s="12">
         <v>5</v>
@@ -49677,7 +49675,7 @@
         <v>13</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="12">
@@ -49685,7 +49683,7 @@
       </c>
       <c r="F41" s="13"/>
       <c r="G41" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H41" s="13"/>
       <c r="I41" s="12">
@@ -49725,7 +49723,7 @@
         <v>20</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="12">
@@ -49733,7 +49731,7 @@
       </c>
       <c r="F42" s="13"/>
       <c r="G42" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H42" s="13"/>
       <c r="I42" s="12">
@@ -49773,7 +49771,7 @@
         <v>27</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="12">
@@ -49781,7 +49779,7 @@
       </c>
       <c r="F43" s="13"/>
       <c r="G43" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H43" s="13"/>
       <c r="I43" s="12">
@@ -49821,10 +49819,10 @@
         <v>32</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E44" s="12">
         <v>2</v>
@@ -49833,7 +49831,7 @@
         <v>13</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H44" s="13">
         <v>2</v>
@@ -49889,15 +49887,15 @@
         <v>11</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F45" s="13"/>
       <c r="G45" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H45" s="13"/>
       <c r="I45" s="12">
@@ -49937,7 +49935,7 @@
         <v>18</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="12">
@@ -49945,7 +49943,7 @@
       </c>
       <c r="F46" s="13"/>
       <c r="G46" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H46" s="13"/>
       <c r="I46" s="12">
@@ -49985,7 +49983,7 @@
         <v>25</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D47" s="13"/>
       <c r="E47" s="12">
@@ -50033,10 +50031,10 @@
         <v>33</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E48" s="12">
         <v>11</v>
@@ -50045,7 +50043,7 @@
         <v>138</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H48" s="13">
         <v>6</v>
@@ -50101,7 +50099,7 @@
         <v>8</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="12">
@@ -50149,7 +50147,7 @@
         <v>15</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="12">
@@ -50197,7 +50195,7 @@
         <v>22</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="12">
@@ -50245,7 +50243,7 @@
         <v>29</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="12">
@@ -50293,10 +50291,10 @@
         <v>34</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E53" s="12">
         <v>75</v>
@@ -50361,7 +50359,7 @@
         <v>13</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="12">
@@ -50409,7 +50407,7 @@
         <v>20</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D55" s="13"/>
       <c r="E55" s="12">
@@ -50457,7 +50455,7 @@
         <v>27</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="12">
@@ -50605,7 +50603,7 @@
     </row>
     <row r="61" spans="1:22">
       <c r="B61" s="28" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="C61" s="28" t="s">
         <v>36</v>
@@ -50626,7 +50624,7 @@
         <v>266</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D63" s="28"/>
     </row>
@@ -50839,10 +50837,10 @@
         <v>37</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E5" s="11">
         <v>14</v>
@@ -50907,7 +50905,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13">
@@ -50955,7 +50953,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13">
@@ -51003,7 +51001,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13">
@@ -51051,7 +51049,7 @@
         <v>38</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13">
@@ -51099,10 +51097,10 @@
         <v>39</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E10" s="13">
         <v>13</v>
@@ -51111,7 +51109,7 @@
         <v>144</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H10" s="13">
         <v>4</v>
@@ -51167,7 +51165,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13">
@@ -51175,7 +51173,7 @@
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="12">
@@ -51215,7 +51213,7 @@
         <v>21</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
@@ -51263,7 +51261,7 @@
         <v>27</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
@@ -51311,10 +51309,10 @@
         <v>57</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E14" s="13">
         <v>44</v>
@@ -51323,7 +51321,7 @@
         <v>169</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H14" s="13">
         <v>4</v>
@@ -51379,7 +51377,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
@@ -51427,7 +51425,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
@@ -51435,7 +51433,7 @@
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H16" s="13"/>
       <c r="I16" s="12">
@@ -51475,7 +51473,7 @@
         <v>27</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13">
@@ -51523,10 +51521,10 @@
         <v>58</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E18" s="13">
         <v>15</v>
@@ -51591,7 +51589,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="13">
@@ -51599,7 +51597,7 @@
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H19" s="13"/>
       <c r="I19" s="12">
@@ -51639,7 +51637,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
@@ -51687,7 +51685,7 @@
         <v>24</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
@@ -51735,10 +51733,10 @@
         <v>59</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E22" s="13">
         <v>37</v>
@@ -51803,7 +51801,7 @@
         <v>8</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
@@ -51851,7 +51849,7 @@
         <v>15</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13">
@@ -51899,7 +51897,7 @@
         <v>22</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="13">
@@ -51907,7 +51905,7 @@
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="12">
@@ -51947,7 +51945,7 @@
         <v>29</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="13">
@@ -51955,7 +51953,7 @@
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="12">
@@ -51995,10 +51993,10 @@
         <v>60</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E27" s="13">
         <v>82</v>
@@ -52007,7 +52005,7 @@
         <v>313</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H27" s="13">
         <v>1</v>
@@ -52063,7 +52061,7 @@
         <v>12</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="13">
@@ -52071,7 +52069,7 @@
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H28" s="13"/>
       <c r="I28" s="12">
@@ -52111,7 +52109,7 @@
         <v>19</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="13">
@@ -52119,7 +52117,7 @@
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="12">
@@ -52159,7 +52157,7 @@
         <v>61</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="13">
@@ -52207,10 +52205,10 @@
         <v>62</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E31" s="13">
         <v>68</v>
@@ -52219,10 +52217,10 @@
         <v>239</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I31" s="12">
         <v>89</v>
@@ -52275,7 +52273,7 @@
         <v>10</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="13">
@@ -52283,7 +52281,7 @@
       </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H32" s="13"/>
       <c r="I32" s="12">
@@ -52323,7 +52321,7 @@
         <v>17</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="13">
@@ -52331,7 +52329,7 @@
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H33" s="13"/>
       <c r="I33" s="12">
@@ -52371,7 +52369,7 @@
         <v>105</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="13">
@@ -52379,7 +52377,7 @@
       </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H34" s="13"/>
       <c r="I34" s="12">
@@ -52419,17 +52417,17 @@
         <v>31</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E35" s="13">
         <v>43</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H35" s="13"/>
       <c r="I35" s="12">
@@ -52469,7 +52467,7 @@
         <v>63</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13">
@@ -52479,10 +52477,10 @@
         <v>33</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I36" s="12">
         <v>21</v>
@@ -52535,7 +52533,7 @@
         <v>14</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="13">
@@ -52543,7 +52541,7 @@
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="12">
@@ -52583,7 +52581,7 @@
         <v>122</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="13">
@@ -52591,7 +52589,7 @@
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H38" s="13"/>
       <c r="I38" s="12">
@@ -52631,7 +52629,7 @@
         <v>27</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="13">
@@ -52639,7 +52637,7 @@
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H39" s="13"/>
       <c r="I39" s="12">
@@ -52679,10 +52677,10 @@
         <v>64</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E40" s="13">
         <v>10</v>
@@ -52691,10 +52689,10 @@
         <v>21</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I40" s="12">
         <v>31</v>
@@ -52747,7 +52745,7 @@
         <v>11</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13">
@@ -52755,7 +52753,7 @@
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H41" s="13"/>
       <c r="I41" s="12">
@@ -52795,7 +52793,7 @@
         <v>18</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="13">
@@ -52803,7 +52801,7 @@
       </c>
       <c r="F42" s="12"/>
       <c r="G42" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H42" s="13"/>
       <c r="I42" s="12">
@@ -52843,7 +52841,7 @@
         <v>25</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="13">
@@ -52851,7 +52849,7 @@
       </c>
       <c r="F43" s="12"/>
       <c r="G43" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H43" s="13"/>
       <c r="I43" s="12">
@@ -52891,10 +52889,10 @@
         <v>65</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E44" s="13">
         <v>12</v>
@@ -52903,7 +52901,7 @@
         <v>104</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H44" s="13">
         <v>2</v>
@@ -52959,7 +52957,7 @@
         <v>9</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="13">
@@ -52967,7 +52965,7 @@
       </c>
       <c r="F45" s="12"/>
       <c r="G45" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H45" s="13"/>
       <c r="I45" s="12">
@@ -53007,7 +53005,7 @@
         <v>16</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="13">
@@ -53055,7 +53053,7 @@
         <v>23</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D47" s="13"/>
       <c r="E47" s="13">
@@ -53063,7 +53061,7 @@
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H47" s="13"/>
       <c r="I47" s="12">
@@ -53101,7 +53099,7 @@
         <v>30</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="13">
@@ -53149,10 +53147,10 @@
         <v>66</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E49" s="13">
         <v>22</v>
@@ -53161,7 +53159,7 @@
         <v>125</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H49" s="13">
         <v>2</v>
@@ -53217,7 +53215,7 @@
         <v>13</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="13">
@@ -53225,7 +53223,7 @@
       </c>
       <c r="F50" s="12"/>
       <c r="G50" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H50" s="13"/>
       <c r="I50" s="12">
@@ -53265,7 +53263,7 @@
         <v>20</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="13">
@@ -53313,7 +53311,7 @@
         <v>27</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="13">
@@ -53361,10 +53359,10 @@
         <v>67</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E53" s="13">
         <v>78</v>
@@ -53373,7 +53371,7 @@
         <v>318</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H53" s="13">
         <v>8</v>
@@ -53429,7 +53427,7 @@
         <v>11</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="13">
@@ -53477,7 +53475,7 @@
         <v>18</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D55" s="13"/>
       <c r="E55" s="13">
@@ -53525,7 +53523,7 @@
         <v>25</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
@@ -53623,7 +53621,7 @@
         <v>11</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9">
@@ -53665,7 +53663,7 @@
     </row>
     <row r="61" spans="1:22">
       <c r="B61" s="28" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="C61" s="28" t="s">
         <v>36</v>
@@ -53686,7 +53684,7 @@
         <v>266</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D63" s="28"/>
     </row>
@@ -53915,10 +53913,10 @@
       <c r="C5" s="10"/>
       <c r="D5" s="11"/>
       <c r="E5" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G5" s="10">
         <v>39</v>
@@ -53985,7 +53983,7 @@
       <c r="C6" s="12"/>
       <c r="D6" s="13"/>
       <c r="E6" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="12">
@@ -54035,7 +54033,7 @@
       <c r="C7" s="12"/>
       <c r="D7" s="13"/>
       <c r="E7" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="12">
@@ -54085,7 +54083,7 @@
       <c r="C8" s="12"/>
       <c r="D8" s="13"/>
       <c r="E8" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="12">
@@ -54093,7 +54091,7 @@
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="12">
@@ -54135,7 +54133,7 @@
       <c r="C9" s="12"/>
       <c r="D9" s="13"/>
       <c r="E9" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="12">
@@ -54185,10 +54183,10 @@
       <c r="C10" s="12"/>
       <c r="D10" s="13"/>
       <c r="E10" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G10" s="12">
         <v>31</v>
@@ -54255,7 +54253,7 @@
       <c r="C11" s="12"/>
       <c r="D11" s="13"/>
       <c r="E11" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="12">
@@ -54305,7 +54303,7 @@
       <c r="C12" s="12"/>
       <c r="D12" s="13"/>
       <c r="E12" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="12">
@@ -54355,7 +54353,7 @@
       <c r="C13" s="12"/>
       <c r="D13" s="13"/>
       <c r="E13" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="12">
@@ -54405,10 +54403,10 @@
       <c r="C14" s="12"/>
       <c r="D14" s="13"/>
       <c r="E14" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G14" s="12">
         <v>32</v>
@@ -54475,7 +54473,7 @@
       <c r="C15" s="12"/>
       <c r="D15" s="13"/>
       <c r="E15" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="12">
@@ -54525,7 +54523,7 @@
       <c r="C16" s="12"/>
       <c r="D16" s="13"/>
       <c r="E16" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="12">
@@ -54575,7 +54573,7 @@
       <c r="C17" s="12"/>
       <c r="D17" s="13"/>
       <c r="E17" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="12">
@@ -54625,10 +54623,10 @@
       <c r="C18" s="12"/>
       <c r="D18" s="13"/>
       <c r="E18" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G18" s="12">
         <v>24</v>
@@ -54695,7 +54693,7 @@
       <c r="C19" s="12"/>
       <c r="D19" s="13"/>
       <c r="E19" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="12">
@@ -54745,7 +54743,7 @@
       <c r="C20" s="12"/>
       <c r="D20" s="13"/>
       <c r="E20" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="12">
@@ -54795,7 +54793,7 @@
       <c r="C21" s="12"/>
       <c r="D21" s="13"/>
       <c r="E21" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="12">
@@ -54803,7 +54801,7 @@
       </c>
       <c r="H21" s="13"/>
       <c r="I21" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J21" s="13"/>
       <c r="K21" s="12">
@@ -54845,7 +54843,7 @@
       <c r="C22" s="12"/>
       <c r="D22" s="13"/>
       <c r="E22" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="12">
@@ -54895,10 +54893,10 @@
       <c r="C23" s="12"/>
       <c r="D23" s="13"/>
       <c r="E23" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G23" s="12">
         <v>14</v>
@@ -54965,7 +54963,7 @@
       <c r="C24" s="12"/>
       <c r="D24" s="13"/>
       <c r="E24" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="12">
@@ -55015,7 +55013,7 @@
       <c r="C25" s="12"/>
       <c r="D25" s="13"/>
       <c r="E25" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="12">
@@ -55065,7 +55063,7 @@
       <c r="C26" s="12"/>
       <c r="D26" s="13"/>
       <c r="E26" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="12">
@@ -55073,7 +55071,7 @@
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J26" s="13"/>
       <c r="K26" s="12">
@@ -55115,10 +55113,10 @@
       <c r="C27" s="12"/>
       <c r="D27" s="13"/>
       <c r="E27" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G27" s="12">
         <v>29</v>
@@ -55127,7 +55125,7 @@
         <v>119</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J27" s="13">
         <v>4</v>
@@ -55185,7 +55183,7 @@
       <c r="C28" s="12"/>
       <c r="D28" s="13"/>
       <c r="E28" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="12">
@@ -55235,7 +55233,7 @@
       <c r="C29" s="12"/>
       <c r="D29" s="13"/>
       <c r="E29" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="12">
@@ -55285,7 +55283,7 @@
       <c r="C30" s="12"/>
       <c r="D30" s="13"/>
       <c r="E30" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="12">
@@ -55293,7 +55291,7 @@
       </c>
       <c r="H30" s="13"/>
       <c r="I30" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J30" s="13"/>
       <c r="K30" s="12">
@@ -55339,10 +55337,10 @@
         <v>3</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G31" s="12">
         <v>7</v>
@@ -55351,7 +55349,7 @@
         <v>105</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J31" s="13">
         <v>2</v>
@@ -55407,11 +55405,11 @@
         <v>9</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F32" s="13"/>
       <c r="G32" s="12">
@@ -55419,7 +55417,7 @@
       </c>
       <c r="H32" s="13"/>
       <c r="I32" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J32" s="13"/>
       <c r="K32" s="12">
@@ -55459,11 +55457,11 @@
         <v>16</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F33" s="13"/>
       <c r="G33" s="12">
@@ -55471,7 +55469,7 @@
       </c>
       <c r="H33" s="13"/>
       <c r="I33" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J33" s="13"/>
       <c r="K33" s="12">
@@ -55511,11 +55509,11 @@
         <v>30</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F34" s="13"/>
       <c r="G34" s="12">
@@ -55567,7 +55565,7 @@
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F35" s="13"/>
       <c r="G35" s="12">
@@ -55575,7 +55573,7 @@
       </c>
       <c r="H35" s="13"/>
       <c r="I35" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J35" s="13"/>
       <c r="K35" s="12">
@@ -55621,10 +55619,10 @@
         <v>2</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G36" s="12">
         <v>10</v>
@@ -55633,7 +55631,7 @@
         <v>33</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J36" s="13">
         <v>4</v>
@@ -55693,7 +55691,7 @@
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F37" s="13"/>
       <c r="G37" s="12">
@@ -55701,7 +55699,7 @@
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J37" s="13"/>
       <c r="K37" s="12">
@@ -55741,11 +55739,11 @@
         <v>76</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F38" s="13"/>
       <c r="G38" s="12">
@@ -55793,11 +55791,11 @@
         <v>45</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F39" s="13"/>
       <c r="G39" s="12">
@@ -55845,14 +55843,14 @@
         <v>77</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G40" s="12">
         <v>6</v>
@@ -55861,7 +55859,7 @@
         <v>44</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J40" s="13">
         <v>1</v>
@@ -55917,11 +55915,11 @@
         <v>10</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F41" s="13"/>
       <c r="G41" s="12">
@@ -55929,7 +55927,7 @@
       </c>
       <c r="H41" s="13"/>
       <c r="I41" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J41" s="13"/>
       <c r="K41" s="12">
@@ -55969,11 +55967,11 @@
         <v>17</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F42" s="13"/>
       <c r="G42" s="12">
@@ -55981,7 +55979,7 @@
       </c>
       <c r="H42" s="13"/>
       <c r="I42" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J42" s="13"/>
       <c r="K42" s="12">
@@ -56021,11 +56019,11 @@
         <v>24</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F43" s="13"/>
       <c r="G43" s="12">
@@ -56079,10 +56077,10 @@
         <v>3</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G44" s="12">
         <v>24</v>
@@ -56147,11 +56145,11 @@
         <v>8</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F45" s="13"/>
       <c r="G45" s="12">
@@ -56203,7 +56201,7 @@
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F46" s="13"/>
       <c r="G46" s="12">
@@ -56251,11 +56249,11 @@
         <v>22</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D47" s="13"/>
       <c r="E47" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F47" s="13"/>
       <c r="G47" s="12">
@@ -56303,11 +56301,11 @@
         <v>29</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F48" s="13"/>
       <c r="G48" s="12">
@@ -56355,16 +56353,16 @@
         <v>79</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D49" s="13">
         <v>1</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G49" s="12">
         <v>22</v>
@@ -56429,11 +56427,11 @@
         <v>12</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F50" s="13"/>
       <c r="G50" s="12">
@@ -56441,7 +56439,7 @@
       </c>
       <c r="H50" s="13"/>
       <c r="I50" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J50" s="13"/>
       <c r="K50" s="12">
@@ -56485,7 +56483,7 @@
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F51" s="13"/>
       <c r="G51" s="12">
@@ -56533,11 +56531,11 @@
         <v>26</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F52" s="13"/>
       <c r="G52" s="12">
@@ -56545,7 +56543,7 @@
       </c>
       <c r="H52" s="13"/>
       <c r="I52" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J52" s="13"/>
       <c r="K52" s="12">
@@ -56585,16 +56583,16 @@
         <v>80</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D53" s="13">
         <v>2</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G53" s="12">
         <v>54</v>
@@ -56663,7 +56661,7 @@
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F54" s="13"/>
       <c r="G54" s="12">
@@ -56711,11 +56709,11 @@
         <v>17</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D55" s="13"/>
       <c r="E55" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F55" s="13"/>
       <c r="G55" s="12">
@@ -56723,7 +56721,7 @@
       </c>
       <c r="H55" s="13"/>
       <c r="I55" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J55" s="13"/>
       <c r="K55" s="12">
@@ -56767,7 +56765,7 @@
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F56" s="13"/>
       <c r="G56" s="12">
@@ -56775,7 +56773,7 @@
       </c>
       <c r="H56" s="13"/>
       <c r="I56" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J56" s="13"/>
       <c r="K56" s="12">
@@ -56815,11 +56813,11 @@
         <v>31</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F57" s="13"/>
       <c r="G57" s="12">
@@ -56827,7 +56825,7 @@
       </c>
       <c r="H57" s="13"/>
       <c r="I57" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J57" s="13"/>
       <c r="K57" s="12">
@@ -56897,7 +56895,7 @@
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F59" s="9"/>
       <c r="G59" s="17">
@@ -56949,7 +56947,7 @@
     </row>
     <row r="61" spans="1:24">
       <c r="B61" s="28" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="C61" s="28" t="s">
         <v>36</v>
@@ -56972,17 +56970,12 @@
         <v>266</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D63" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="C2:L2"/>
     <mergeCell ref="B1:X1"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="E3:F3"/>
@@ -56995,6 +56988,11 @@
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="W3:X3"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="C2:L2"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:X59">
     <cfRule type="expression" dxfId="8" priority="1">
@@ -57202,16 +57200,16 @@
         <v>108</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D5" s="11">
         <v>1</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G5" s="10">
         <v>63</v>
@@ -57280,7 +57278,7 @@
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="12">
@@ -57328,11 +57326,11 @@
         <v>21</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="12">
@@ -57340,7 +57338,7 @@
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J7" s="13"/>
       <c r="K7" s="12">
@@ -57380,11 +57378,11 @@
         <v>28</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="12">
@@ -57438,10 +57436,10 @@
         <v>6</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G9" s="12">
         <v>55</v>
@@ -57450,7 +57448,7 @@
         <v>166</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J9" s="13">
         <v>11</v>
@@ -57510,7 +57508,7 @@
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="12">
@@ -57518,7 +57516,7 @@
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J10" s="13"/>
       <c r="K10" s="12">
@@ -57562,7 +57560,7 @@
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="12">
@@ -57610,11 +57608,11 @@
         <v>25</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="12">
@@ -57622,7 +57620,7 @@
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J12" s="13"/>
       <c r="K12" s="12">
@@ -57662,16 +57660,16 @@
         <v>40</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D13" s="13">
         <v>1</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G13" s="12">
         <v>24</v>
@@ -57736,11 +57734,11 @@
         <v>11</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="12">
@@ -57748,7 +57746,7 @@
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J14" s="13"/>
       <c r="K14" s="12">
@@ -57792,7 +57790,7 @@
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="12">
@@ -57840,11 +57838,11 @@
         <v>25</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="12">
@@ -57892,16 +57890,16 @@
         <v>109</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D17" s="13">
         <v>6</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G17" s="12">
         <v>10</v>
@@ -57970,7 +57968,7 @@
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="12">
@@ -57978,7 +57976,7 @@
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J18" s="13"/>
       <c r="K18" s="12">
@@ -58018,11 +58016,11 @@
         <v>15</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="12">
@@ -58030,7 +58028,7 @@
       </c>
       <c r="H19" s="13"/>
       <c r="I19" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J19" s="13"/>
       <c r="K19" s="12">
@@ -58074,7 +58072,7 @@
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="12">
@@ -58122,11 +58120,11 @@
         <v>29</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="12">
@@ -58174,16 +58172,16 @@
         <v>110</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D22" s="13">
         <v>1</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G22" s="12">
         <v>11</v>
@@ -58192,7 +58190,7 @@
         <v>41</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J22" s="13">
         <v>2</v>
@@ -58248,11 +58246,11 @@
         <v>13</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="12">
@@ -58300,11 +58298,11 @@
         <v>20</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="12">
@@ -58312,7 +58310,7 @@
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J24" s="13"/>
       <c r="K24" s="12">
@@ -58356,7 +58354,7 @@
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="12">
@@ -58410,10 +58408,10 @@
         <v>1</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G26" s="12">
         <v>11</v>
@@ -58478,11 +58476,11 @@
         <v>112</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="12">
@@ -58490,7 +58488,7 @@
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J27" s="13"/>
       <c r="K27" s="12">
@@ -58530,11 +58528,11 @@
         <v>17</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="12">
@@ -58582,11 +58580,11 @@
         <v>24</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="12">
@@ -58634,16 +58632,16 @@
         <v>113</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D30" s="13">
         <v>1</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G30" s="12">
         <v>15</v>
@@ -58708,11 +58706,11 @@
         <v>8</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F31" s="13"/>
       <c r="G31" s="12">
@@ -58764,7 +58762,7 @@
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F32" s="13"/>
       <c r="G32" s="12">
@@ -58812,11 +58810,11 @@
         <v>22</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F33" s="13"/>
       <c r="G33" s="12">
@@ -58824,7 +58822,7 @@
       </c>
       <c r="H33" s="13"/>
       <c r="I33" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J33" s="13"/>
       <c r="K33" s="12">
@@ -58864,11 +58862,11 @@
         <v>51</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F34" s="13"/>
       <c r="G34" s="12">
@@ -58916,16 +58914,16 @@
         <v>114</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G35" s="12">
         <v>16</v>
@@ -58934,10 +58932,10 @@
         <v>54</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J35" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K35" s="12">
         <v>51</v>
@@ -58990,11 +58988,11 @@
         <v>12</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F36" s="13"/>
       <c r="G36" s="12">
@@ -59002,7 +59000,7 @@
       </c>
       <c r="H36" s="13"/>
       <c r="I36" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J36" s="13"/>
       <c r="K36" s="12">
@@ -59042,11 +59040,11 @@
         <v>19</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F37" s="13"/>
       <c r="G37" s="12">
@@ -59054,7 +59052,7 @@
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J37" s="13"/>
       <c r="K37" s="12">
@@ -59094,11 +59092,11 @@
         <v>61</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F38" s="13"/>
       <c r="G38" s="12">
@@ -59106,7 +59104,7 @@
       </c>
       <c r="H38" s="13"/>
       <c r="I38" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J38" s="13"/>
       <c r="K38" s="12">
@@ -59146,19 +59144,19 @@
         <v>115</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D39" s="13">
         <v>1</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H39" s="13">
         <v>44</v>
@@ -59220,11 +59218,11 @@
         <v>9</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F40" s="13"/>
       <c r="G40" s="12">
@@ -59232,7 +59230,7 @@
       </c>
       <c r="H40" s="13"/>
       <c r="I40" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J40" s="13"/>
       <c r="K40" s="12">
@@ -59276,7 +59274,7 @@
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F41" s="13"/>
       <c r="G41" s="12">
@@ -59324,11 +59322,11 @@
         <v>23</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F42" s="13"/>
       <c r="G42" s="12">
@@ -59336,7 +59334,7 @@
       </c>
       <c r="H42" s="13"/>
       <c r="I42" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J42" s="13"/>
       <c r="K42" s="12">
@@ -59376,11 +59374,11 @@
         <v>30</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F43" s="13"/>
       <c r="G43" s="12">
@@ -59388,7 +59386,7 @@
       </c>
       <c r="H43" s="13"/>
       <c r="I43" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J43" s="13"/>
       <c r="K43" s="12">
@@ -59434,10 +59432,10 @@
         <v>3</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G44" s="12">
         <v>11</v>
@@ -59446,7 +59444,7 @@
         <v>112</v>
       </c>
       <c r="I44" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J44" s="13">
         <v>4</v>
@@ -59502,11 +59500,11 @@
         <v>14</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F45" s="13"/>
       <c r="G45" s="12">
@@ -59554,11 +59552,11 @@
         <v>21</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F46" s="13"/>
       <c r="G46" s="12">
@@ -59566,7 +59564,7 @@
       </c>
       <c r="H46" s="13"/>
       <c r="I46" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J46" s="13"/>
       <c r="K46" s="12">
@@ -59606,11 +59604,11 @@
         <v>28</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D47" s="13"/>
       <c r="E47" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F47" s="13"/>
       <c r="G47" s="12">
@@ -59664,10 +59662,10 @@
         <v>6</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G48" s="12">
         <v>57</v>
@@ -59676,7 +59674,7 @@
         <v>242</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J48" s="13">
         <v>7</v>
@@ -59732,11 +59730,11 @@
         <v>11</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F49" s="13"/>
       <c r="G49" s="12">
@@ -59788,7 +59786,7 @@
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F50" s="13"/>
       <c r="G50" s="12">
@@ -59840,7 +59838,7 @@
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F51" s="13"/>
       <c r="G51" s="12">
@@ -59894,10 +59892,10 @@
         <v>14</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G52" s="12">
         <v>67</v>
@@ -59906,7 +59904,7 @@
         <v>236</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J52" s="13">
         <v>4</v>
@@ -59966,7 +59964,7 @@
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F53" s="13"/>
       <c r="G53" s="12">
@@ -60018,7 +60016,7 @@
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F54" s="13"/>
       <c r="G54" s="12">
@@ -60070,7 +60068,7 @@
       </c>
       <c r="D55" s="13"/>
       <c r="E55" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F55" s="13"/>
       <c r="G55" s="12">
@@ -60078,7 +60076,7 @@
       </c>
       <c r="H55" s="13"/>
       <c r="I55" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J55" s="13"/>
       <c r="K55" s="12">
@@ -60118,11 +60116,11 @@
         <v>30</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F56" s="13"/>
       <c r="G56" s="12">
@@ -60170,7 +60168,7 @@
       <c r="C57" s="12"/>
       <c r="D57" s="13"/>
       <c r="E57" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F57" s="13"/>
       <c r="G57" s="12"/>
@@ -60230,7 +60228,7 @@
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F59" s="9"/>
       <c r="G59" s="17">
@@ -60280,7 +60278,7 @@
     </row>
     <row r="61" spans="1:24">
       <c r="B61" s="28" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="C61" s="28" t="s">
         <v>36</v>
@@ -60303,12 +60301,13 @@
         <v>266</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D63" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="O3:P3"/>
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="U3:V3"/>
@@ -60325,7 +60324,6 @@
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="C2:L2"/>
-    <mergeCell ref="O3:P3"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:X59">
     <cfRule type="expression" dxfId="7" priority="1">
@@ -60533,16 +60531,16 @@
         <v>119</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D5" s="11">
         <v>7</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G5" s="10">
         <v>42</v>
@@ -60551,7 +60549,7 @@
         <v>228</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J5" s="11">
         <v>3</v>
@@ -60611,7 +60609,7 @@
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="12">
@@ -60663,7 +60661,7 @@
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="31" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="12">
@@ -60671,7 +60669,7 @@
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J7" s="13"/>
       <c r="K7" s="12">
@@ -60715,7 +60713,7 @@
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="12">
@@ -60723,7 +60721,7 @@
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="12">
@@ -60763,16 +60761,16 @@
         <v>120</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D9" s="13">
         <v>1</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G9" s="12">
         <v>16</v>
@@ -60837,11 +60835,11 @@
         <v>10</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="12">
@@ -60893,7 +60891,7 @@
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="31" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="12">
@@ -60901,7 +60899,7 @@
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J11" s="13"/>
       <c r="K11" s="12">
@@ -60941,11 +60939,11 @@
         <v>24</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="12">
@@ -60953,7 +60951,7 @@
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J12" s="13"/>
       <c r="K12" s="12">
@@ -60993,16 +60991,16 @@
         <v>83</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D13" s="13">
         <v>3</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G13" s="12">
         <v>48</v>
@@ -61011,10 +61009,10 @@
         <v>133</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K13" s="12">
         <v>290</v>
@@ -61071,7 +61069,7 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="12">
@@ -61079,7 +61077,7 @@
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J14" s="13"/>
       <c r="K14" s="12">
@@ -61119,11 +61117,11 @@
         <v>17</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="31" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="12">
@@ -61131,7 +61129,7 @@
       </c>
       <c r="H15" s="13"/>
       <c r="I15" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J15" s="13"/>
       <c r="K15" s="12">
@@ -61171,11 +61169,11 @@
         <v>24</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="12">
@@ -61183,7 +61181,7 @@
       </c>
       <c r="H16" s="13"/>
       <c r="I16" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J16" s="13"/>
       <c r="K16" s="12">
@@ -61227,7 +61225,7 @@
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="31" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="12">
@@ -61235,7 +61233,7 @@
       </c>
       <c r="H17" s="13"/>
       <c r="I17" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J17" s="13"/>
       <c r="K17" s="12">
@@ -61275,16 +61273,16 @@
         <v>84</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D18" s="13">
         <v>4</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G18" s="12">
         <v>27</v>
@@ -61293,7 +61291,7 @@
         <v>109</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J18" s="13">
         <v>1</v>
@@ -61353,7 +61351,7 @@
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="31" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="12">
@@ -61361,7 +61359,7 @@
       </c>
       <c r="H19" s="13"/>
       <c r="I19" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J19" s="13"/>
       <c r="K19" s="12">
@@ -61405,7 +61403,7 @@
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="12">
@@ -61413,7 +61411,7 @@
       </c>
       <c r="H20" s="13"/>
       <c r="I20" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J20" s="13"/>
       <c r="K20" s="12">
@@ -61457,7 +61455,7 @@
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="31" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="12">
@@ -61511,10 +61509,10 @@
         <v>13</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G22" s="12">
         <v>48</v>
@@ -61523,7 +61521,7 @@
         <v>137</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J22" s="13">
         <v>1</v>
@@ -61579,11 +61577,11 @@
         <v>12</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="31" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="12">
@@ -61591,7 +61589,7 @@
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J23" s="13"/>
       <c r="K23" s="12">
@@ -61631,11 +61629,11 @@
         <v>19</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="12">
@@ -61687,7 +61685,7 @@
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="31" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="12">
@@ -61695,7 +61693,7 @@
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J25" s="13"/>
       <c r="K25" s="12">
@@ -61741,10 +61739,10 @@
         <v>23</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G26" s="12">
         <v>32</v>
@@ -61753,7 +61751,7 @@
         <v>183</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J26" s="13">
         <v>18</v>
@@ -61813,7 +61811,7 @@
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="31" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="12">
@@ -61865,7 +61863,7 @@
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="12">
@@ -61917,7 +61915,7 @@
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="31" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="12">
@@ -61925,7 +61923,7 @@
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J29" s="13"/>
       <c r="K29" s="12">
@@ -61969,7 +61967,7 @@
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="12">
@@ -62023,10 +62021,10 @@
         <v>11</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G31" s="12">
         <v>25</v>
@@ -62035,7 +62033,7 @@
         <v>100</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J31" s="13">
         <v>1</v>
@@ -62095,7 +62093,7 @@
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F32" s="13"/>
       <c r="G32" s="12">
@@ -62103,7 +62101,7 @@
       </c>
       <c r="H32" s="13"/>
       <c r="I32" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J32" s="13"/>
       <c r="K32" s="12">
@@ -62147,7 +62145,7 @@
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="31" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F33" s="13"/>
       <c r="G33" s="12">
@@ -62155,7 +62153,7 @@
       </c>
       <c r="H33" s="13"/>
       <c r="I33" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J33" s="13"/>
       <c r="K33" s="12">
@@ -62199,7 +62197,7 @@
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F34" s="13"/>
       <c r="G34" s="12">
@@ -62253,10 +62251,10 @@
         <v>10</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G35" s="12">
         <v>13</v>
@@ -62265,10 +62263,10 @@
         <v>26</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J35" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K35" s="12">
         <v>39</v>
@@ -62325,7 +62323,7 @@
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F36" s="13"/>
       <c r="G36" s="12">
@@ -62333,7 +62331,7 @@
       </c>
       <c r="H36" s="13"/>
       <c r="I36" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J36" s="13"/>
       <c r="K36" s="12">
@@ -62377,7 +62375,7 @@
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="31" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F37" s="13"/>
       <c r="G37" s="12">
@@ -62385,7 +62383,7 @@
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J37" s="13"/>
       <c r="K37" s="12">
@@ -62429,7 +62427,7 @@
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F38" s="13"/>
       <c r="G38" s="12">
@@ -62437,7 +62435,7 @@
       </c>
       <c r="H38" s="13"/>
       <c r="I38" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J38" s="13"/>
       <c r="K38" s="12">
@@ -62483,10 +62481,10 @@
         <v>5</v>
       </c>
       <c r="E39" s="31" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G39" s="12">
         <v>21</v>
@@ -62495,7 +62493,7 @@
         <v>32</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J39" s="13">
         <v>1</v>
@@ -62551,11 +62549,11 @@
         <v>8</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F40" s="13"/>
       <c r="G40" s="12">
@@ -62563,7 +62561,7 @@
       </c>
       <c r="H40" s="13"/>
       <c r="I40" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J40" s="13"/>
       <c r="K40" s="12">
@@ -62603,11 +62601,11 @@
         <v>15</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="31" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F41" s="13"/>
       <c r="G41" s="12">
@@ -62615,7 +62613,7 @@
       </c>
       <c r="H41" s="13"/>
       <c r="I41" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J41" s="13"/>
       <c r="K41" s="12">
@@ -62659,7 +62657,7 @@
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F42" s="13"/>
       <c r="G42" s="12">
@@ -62667,7 +62665,7 @@
       </c>
       <c r="H42" s="13"/>
       <c r="I42" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J42" s="13"/>
       <c r="K42" s="12">
@@ -62711,7 +62709,7 @@
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="31" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F43" s="13"/>
       <c r="G43" s="12">
@@ -62759,16 +62757,16 @@
         <v>91</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D44" s="13">
         <v>25</v>
       </c>
       <c r="E44" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G44" s="12">
         <v>4</v>
@@ -62777,7 +62775,7 @@
         <v>30</v>
       </c>
       <c r="I44" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J44" s="13">
         <v>9</v>
@@ -62837,7 +62835,7 @@
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="31" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F45" s="13"/>
       <c r="G45" s="12">
@@ -62845,7 +62843,7 @@
       </c>
       <c r="H45" s="13"/>
       <c r="I45" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J45" s="13"/>
       <c r="K45" s="12">
@@ -62889,7 +62887,7 @@
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F46" s="13"/>
       <c r="G46" s="12">
@@ -62941,7 +62939,7 @@
       </c>
       <c r="D47" s="13"/>
       <c r="E47" s="31" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F47" s="13"/>
       <c r="G47" s="12">
@@ -62995,10 +62993,10 @@
         <v>13</v>
       </c>
       <c r="E48" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G48" s="12">
         <v>6</v>
@@ -63067,7 +63065,7 @@
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="31" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F49" s="13"/>
       <c r="G49" s="12">
@@ -63119,7 +63117,7 @@
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F50" s="13"/>
       <c r="G50" s="12">
@@ -63171,7 +63169,7 @@
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="31" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F51" s="13"/>
       <c r="G51" s="12">
@@ -63225,10 +63223,10 @@
         <v>16</v>
       </c>
       <c r="E52" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G52" s="12">
         <v>30</v>
@@ -63237,7 +63235,7 @@
         <v>163</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J52" s="13">
         <v>2</v>
@@ -63297,7 +63295,7 @@
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="31" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F53" s="13"/>
       <c r="G53" s="12">
@@ -63345,11 +63343,11 @@
         <v>15</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F54" s="13"/>
       <c r="G54" s="12">
@@ -63357,7 +63355,7 @@
       </c>
       <c r="H54" s="13"/>
       <c r="I54" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J54" s="13"/>
       <c r="K54" s="12">
@@ -63401,7 +63399,7 @@
       </c>
       <c r="D55" s="13"/>
       <c r="E55" s="31" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F55" s="13"/>
       <c r="G55" s="12">
@@ -63409,7 +63407,7 @@
       </c>
       <c r="H55" s="13"/>
       <c r="I55" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J55" s="13"/>
       <c r="K55" s="12">
@@ -63453,7 +63451,7 @@
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F56" s="13"/>
       <c r="G56" s="12">
@@ -63461,7 +63459,7 @@
       </c>
       <c r="H56" s="13"/>
       <c r="I56" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J56" s="13"/>
       <c r="K56" s="12">
@@ -63501,7 +63499,7 @@
       <c r="C57" s="12"/>
       <c r="D57" s="13"/>
       <c r="E57" s="31" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F57" s="13"/>
       <c r="G57" s="12"/>
@@ -63561,7 +63559,7 @@
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F59" s="9"/>
       <c r="G59" s="17">
@@ -63611,7 +63609,7 @@
     </row>
     <row r="61" spans="1:24">
       <c r="B61" s="28" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="C61" s="28" t="s">
         <v>36</v>
@@ -63634,17 +63632,12 @@
         <v>266</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D63" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
     <mergeCell ref="B1:X1"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:D3"/>
@@ -63657,6 +63650,11 @@
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:D59">
     <cfRule type="expression" dxfId="6" priority="1">
@@ -63881,7 +63879,7 @@
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="10">
@@ -63933,7 +63931,7 @@
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="12">
@@ -64039,7 +64037,7 @@
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="12">
@@ -64083,7 +64081,7 @@
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="12">
@@ -64091,7 +64089,7 @@
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="12">
@@ -64195,11 +64193,11 @@
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J11" s="13"/>
       <c r="K11" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L11" s="13"/>
       <c r="M11" s="12">
@@ -64405,7 +64403,7 @@
       </c>
       <c r="H15" s="13"/>
       <c r="I15" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J15" s="13"/>
       <c r="K15" s="12">
@@ -64448,7 +64446,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E16" s="12">
         <v>6</v>
@@ -64459,7 +64457,7 @@
       </c>
       <c r="H16" s="13"/>
       <c r="I16" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J16" s="13"/>
       <c r="K16" s="12">
@@ -64555,7 +64553,7 @@
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="12">
@@ -64563,7 +64561,7 @@
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J18" s="13"/>
       <c r="K18" s="12">
@@ -64615,7 +64613,7 @@
       </c>
       <c r="H19" s="13"/>
       <c r="I19" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J19" s="13"/>
       <c r="K19" s="12">
@@ -64658,10 +64656,10 @@
         <v>6</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="12">
@@ -64713,7 +64711,7 @@
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="12">
@@ -64721,7 +64719,7 @@
       </c>
       <c r="H21" s="13"/>
       <c r="I21" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J21" s="13"/>
       <c r="K21" s="12">
@@ -64773,7 +64771,7 @@
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J22" s="13"/>
       <c r="K22" s="12">
@@ -64868,18 +64866,18 @@
         <v>15</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E24" s="12">
         <v>2</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="27" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J24" s="13"/>
       <c r="K24" s="12">
@@ -64931,7 +64929,7 @@
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J25" s="13"/>
       <c r="K25" s="12">
@@ -65089,7 +65087,7 @@
       </c>
       <c r="H28" s="13"/>
       <c r="I28" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J28" s="13"/>
       <c r="K28" s="12">
@@ -65141,7 +65139,7 @@
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J29" s="13"/>
       <c r="K29" s="12">
@@ -65193,7 +65191,7 @@
       </c>
       <c r="H30" s="13"/>
       <c r="I30" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J30" s="13"/>
       <c r="K30" s="12">
@@ -65245,7 +65243,7 @@
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J31" s="13"/>
       <c r="K31" s="12">
@@ -65288,7 +65286,7 @@
         <v>3</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E32" s="12">
         <v>1</v>
@@ -65299,7 +65297,7 @@
       </c>
       <c r="H32" s="13"/>
       <c r="I32" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J32" s="13"/>
       <c r="K32" s="12">
@@ -65339,7 +65337,7 @@
         <v>19</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="12">
@@ -65495,7 +65493,7 @@
         <v>9</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D36" s="13">
         <v>4</v>
@@ -65509,7 +65507,7 @@
       </c>
       <c r="H36" s="13"/>
       <c r="I36" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J36" s="13"/>
       <c r="K36" s="12">
@@ -65549,11 +65547,11 @@
         <v>16</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F37" s="13"/>
       <c r="G37" s="12">
@@ -65561,7 +65559,7 @@
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J37" s="13"/>
       <c r="K37" s="12">
@@ -65601,7 +65599,7 @@
         <v>30</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="12">
@@ -65613,7 +65611,7 @@
       </c>
       <c r="H38" s="13"/>
       <c r="I38" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J38" s="13"/>
       <c r="K38" s="12">
@@ -65657,7 +65655,7 @@
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F39" s="13"/>
       <c r="G39" s="12">
@@ -65665,7 +65663,7 @@
       </c>
       <c r="H39" s="13"/>
       <c r="I39" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J39" s="13"/>
       <c r="K39" s="12">
@@ -65705,13 +65703,13 @@
         <v>31</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D40" s="13">
         <v>1</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F40" s="13"/>
       <c r="G40" s="12">
@@ -65719,7 +65717,7 @@
       </c>
       <c r="H40" s="13"/>
       <c r="I40" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J40" s="13"/>
       <c r="K40" s="12">
@@ -65763,7 +65761,7 @@
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F41" s="13"/>
       <c r="G41" s="12">
@@ -65771,7 +65769,7 @@
       </c>
       <c r="H41" s="13"/>
       <c r="I41" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J41" s="13"/>
       <c r="K41" s="12">
@@ -65823,7 +65821,7 @@
       </c>
       <c r="H42" s="13"/>
       <c r="I42" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J42" s="13"/>
       <c r="K42" s="12">
@@ -65863,11 +65861,11 @@
         <v>27</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F43" s="13"/>
       <c r="G43" s="12">
@@ -65875,7 +65873,7 @@
       </c>
       <c r="H43" s="13"/>
       <c r="I43" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J43" s="13"/>
       <c r="K43" s="12">
@@ -65915,13 +65913,13 @@
         <v>32</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D44" s="13">
         <v>2</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F44" s="13"/>
       <c r="G44" s="12">
@@ -65929,7 +65927,7 @@
       </c>
       <c r="H44" s="13"/>
       <c r="I44" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J44" s="13"/>
       <c r="K44" s="12">
@@ -65973,7 +65971,7 @@
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F45" s="13"/>
       <c r="G45" s="12">
@@ -65981,7 +65979,7 @@
       </c>
       <c r="H45" s="13"/>
       <c r="I45" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J45" s="13"/>
       <c r="K45" s="12">
@@ -66033,7 +66031,7 @@
       </c>
       <c r="H46" s="13"/>
       <c r="I46" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J46" s="13"/>
       <c r="K46" s="12">
@@ -66073,7 +66071,7 @@
         <v>25</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D47" s="13"/>
       <c r="E47" s="12">
@@ -66085,7 +66083,7 @@
       </c>
       <c r="H47" s="13"/>
       <c r="I47" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J47" s="13"/>
       <c r="K47" s="12">
@@ -66128,7 +66126,7 @@
         <v>1</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E48" s="12">
         <v>6</v>
@@ -66183,11 +66181,11 @@
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F49" s="13"/>
       <c r="G49" s="27" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H49" s="13"/>
       <c r="I49" s="12">
@@ -66235,11 +66233,11 @@
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F50" s="13"/>
       <c r="G50" s="27" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H50" s="13"/>
       <c r="I50" s="12">
@@ -66295,7 +66293,7 @@
       </c>
       <c r="H51" s="13"/>
       <c r="I51" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J51" s="13"/>
       <c r="K51" s="12">
@@ -66349,7 +66347,7 @@
       </c>
       <c r="H52" s="13"/>
       <c r="I52" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J52" s="13"/>
       <c r="K52" s="12">
@@ -66441,7 +66439,7 @@
         <v>13</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="12">
@@ -66453,7 +66451,7 @@
       </c>
       <c r="H54" s="13"/>
       <c r="I54" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J54" s="13"/>
       <c r="K54" s="12">
@@ -66559,7 +66557,7 @@
       </c>
       <c r="H56" s="13"/>
       <c r="I56" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J56" s="13"/>
       <c r="K56" s="12">
@@ -66711,7 +66709,7 @@
     </row>
     <row r="61" spans="1:24">
       <c r="B61" s="28" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="C61" s="28" t="s">
         <v>36</v>
@@ -66734,17 +66732,12 @@
         <v>266</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D63" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
     <mergeCell ref="B1:X1"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:D3"/>
@@ -66757,6 +66750,11 @@
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:X59">
     <cfRule type="expression" dxfId="4" priority="1">
@@ -69226,7 +69224,7 @@
     </row>
     <row r="61" spans="1:22">
       <c r="B61" s="28" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="C61" s="28" t="s">
         <v>36</v>
@@ -69238,7 +69236,7 @@
         <v>16</v>
       </c>
       <c r="C62" s="32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D62" s="32"/>
     </row>
@@ -69247,7 +69245,7 @@
         <v>266</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D63" s="28"/>
     </row>
@@ -69486,7 +69484,7 @@
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="10">
@@ -69590,7 +69588,7 @@
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J7" s="13"/>
       <c r="K7" s="12">
@@ -69878,7 +69876,7 @@
         <v>150</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J12" s="13">
         <v>12</v>
@@ -70338,7 +70336,7 @@
         <v>136</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J20" s="13">
         <v>5</v>
@@ -70406,7 +70404,7 @@
       </c>
       <c r="H21" s="13"/>
       <c r="I21" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J21" s="13"/>
       <c r="K21" s="12">
@@ -70458,7 +70456,7 @@
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J22" s="13"/>
       <c r="K22" s="12">
@@ -70568,7 +70566,7 @@
         <v>152</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J24" s="13">
         <v>1</v>
@@ -70786,7 +70784,7 @@
         <v>19</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F28" s="13">
         <v>5</v>
@@ -70798,7 +70796,7 @@
         <v>214</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J28" s="13">
         <v>10</v>
@@ -70866,7 +70864,7 @@
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J29" s="13"/>
       <c r="K29" s="12">
@@ -70918,7 +70916,7 @@
       </c>
       <c r="H30" s="13"/>
       <c r="I30" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J30" s="13"/>
       <c r="K30" s="12">
@@ -71028,7 +71026,7 @@
         <v>161</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J32" s="13">
         <v>1</v>
@@ -71084,7 +71082,7 @@
         <v>18</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="12">
@@ -71148,7 +71146,7 @@
       </c>
       <c r="H34" s="13"/>
       <c r="I34" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J34" s="13"/>
       <c r="K34" s="12">
@@ -71188,7 +71186,7 @@
         <v>48</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="12">
@@ -71200,7 +71198,7 @@
       </c>
       <c r="H35" s="13"/>
       <c r="I35" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J35" s="13"/>
       <c r="K35" s="12">
@@ -71256,7 +71254,7 @@
         <v>38</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J36" s="13">
         <v>2</v>
@@ -71312,11 +71310,11 @@
         <v>15</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F37" s="13"/>
       <c r="G37" s="12">
@@ -71324,7 +71322,7 @@
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J37" s="13"/>
       <c r="K37" s="12">
@@ -71364,7 +71362,7 @@
         <v>50</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="12">
@@ -71376,7 +71374,7 @@
       </c>
       <c r="H38" s="13"/>
       <c r="I38" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J38" s="13"/>
       <c r="K38" s="12">
@@ -71420,7 +71418,7 @@
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F39" s="13"/>
       <c r="G39" s="12">
@@ -71428,7 +71426,7 @@
       </c>
       <c r="H39" s="13"/>
       <c r="I39" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J39" s="13"/>
       <c r="K39" s="12">
@@ -71468,13 +71466,13 @@
         <v>49</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D40" s="13">
         <v>1</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F40" s="13">
         <v>3</v>
@@ -71486,10 +71484,10 @@
         <v>41</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J40" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K40" s="12">
         <v>13</v>
@@ -71542,11 +71540,11 @@
         <v>12</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F41" s="13"/>
       <c r="G41" s="12">
@@ -71554,7 +71552,7 @@
       </c>
       <c r="H41" s="13"/>
       <c r="I41" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J41" s="13"/>
       <c r="K41" s="12">
@@ -71592,19 +71590,19 @@
         <v>19</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F42" s="13"/>
       <c r="G42" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H42" s="13"/>
       <c r="I42" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J42" s="13"/>
       <c r="K42" s="12">
@@ -71656,7 +71654,7 @@
       </c>
       <c r="H43" s="13"/>
       <c r="I43" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J43" s="13"/>
       <c r="K43" s="12">
@@ -71702,7 +71700,7 @@
         <v>7</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F44" s="13">
         <v>1</v>
@@ -71714,10 +71712,10 @@
         <v>52</v>
       </c>
       <c r="I44" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J44" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K44" s="12">
         <v>109</v>
@@ -71770,11 +71768,11 @@
         <v>10</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F45" s="13"/>
       <c r="G45" s="12">
@@ -71782,7 +71780,7 @@
       </c>
       <c r="H45" s="13"/>
       <c r="I45" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J45" s="13"/>
       <c r="K45" s="12">
@@ -71826,7 +71824,7 @@
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F46" s="13"/>
       <c r="G46" s="12">
@@ -71834,7 +71832,7 @@
       </c>
       <c r="H46" s="13"/>
       <c r="I46" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J46" s="13"/>
       <c r="K46" s="12">
@@ -71886,7 +71884,7 @@
       </c>
       <c r="H47" s="13"/>
       <c r="I47" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J47" s="13"/>
       <c r="K47" s="12">
@@ -71926,7 +71924,7 @@
         <v>31</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D48" s="13">
         <v>4</v>
@@ -71944,10 +71942,10 @@
         <v>65</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J48" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K48" s="12">
         <v>222</v>
@@ -72012,7 +72010,7 @@
       </c>
       <c r="H49" s="13"/>
       <c r="I49" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J49" s="13"/>
       <c r="K49" s="12">
@@ -72052,7 +72050,7 @@
         <v>14</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="12">
@@ -72064,7 +72062,7 @@
       </c>
       <c r="H50" s="13"/>
       <c r="I50" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J50" s="13"/>
       <c r="K50" s="12">
@@ -72174,7 +72172,7 @@
         <v>154</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J52" s="13">
         <v>1</v>
@@ -72404,7 +72402,7 @@
         <v>166</v>
       </c>
       <c r="I56" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J56" s="13">
         <v>9</v>
@@ -72572,7 +72570,7 @@
     </row>
     <row r="61" spans="1:24">
       <c r="B61" s="28" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="C61" s="28" t="s">
         <v>36</v>
@@ -72595,7 +72593,7 @@
         <v>266</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D63" s="28"/>
     </row>
@@ -72606,11 +72604,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
     <mergeCell ref="B1:X1"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:D3"/>
@@ -72623,6 +72616,11 @@
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:X59">
     <cfRule type="expression" dxfId="3" priority="1">
@@ -72842,7 +72840,7 @@
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="10">
@@ -72938,7 +72936,7 @@
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="12">
@@ -72946,7 +72944,7 @@
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J7" s="13"/>
       <c r="K7" s="12">
@@ -72998,7 +72996,7 @@
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="12">
@@ -73056,7 +73054,7 @@
         <v>151</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J9" s="13">
         <v>3</v>
@@ -73124,7 +73122,7 @@
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J10" s="13"/>
       <c r="K10" s="12">
@@ -73176,7 +73174,7 @@
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J11" s="13"/>
       <c r="K11" s="12">
@@ -73196,7 +73194,7 @@
       </c>
       <c r="R11" s="13"/>
       <c r="S11" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T11" s="13"/>
       <c r="U11" s="12">
@@ -73228,7 +73226,7 @@
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J12" s="13"/>
       <c r="K12" s="12">
@@ -73292,7 +73290,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L13" s="13">
         <v>1376</v>
@@ -73354,7 +73352,7 @@
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J14" s="13"/>
       <c r="K14" s="12">
@@ -73584,7 +73582,7 @@
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J18" s="13"/>
       <c r="K18" s="12">
@@ -73636,7 +73634,7 @@
       </c>
       <c r="H19" s="13"/>
       <c r="I19" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J19" s="13"/>
       <c r="K19" s="12">
@@ -73656,7 +73654,7 @@
       </c>
       <c r="R19" s="13"/>
       <c r="S19" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T19" s="13"/>
       <c r="U19" s="12">
@@ -73688,7 +73686,7 @@
       </c>
       <c r="H20" s="13"/>
       <c r="I20" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J20" s="13"/>
       <c r="K20" s="12">
@@ -73746,10 +73744,10 @@
         <v>147</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K21" s="12">
         <v>189</v>
@@ -73806,7 +73804,7 @@
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="12">
@@ -73814,7 +73812,7 @@
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J22" s="13"/>
       <c r="K22" s="12">
@@ -73866,7 +73864,7 @@
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J23" s="13"/>
       <c r="K23" s="12">
@@ -73918,7 +73916,7 @@
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J24" s="13"/>
       <c r="K24" s="12">
@@ -73976,10 +73974,10 @@
         <v>106</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K25" s="12">
         <v>163</v>
@@ -74096,7 +74094,7 @@
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J27" s="13"/>
       <c r="K27" s="12">
@@ -74262,7 +74260,7 @@
         <v>61</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="12">
@@ -74274,7 +74272,7 @@
       </c>
       <c r="H30" s="13"/>
       <c r="I30" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J30" s="13"/>
       <c r="K30" s="12">
@@ -74314,7 +74312,7 @@
         <v>62</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="12">
@@ -74378,7 +74376,7 @@
       </c>
       <c r="H32" s="13"/>
       <c r="I32" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J32" s="13"/>
       <c r="K32" s="12">
@@ -74418,7 +74416,7 @@
         <v>17</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D33" s="13">
         <v>2</v>
@@ -74436,7 +74434,7 @@
         <v>170</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J33" s="13">
         <v>2</v>
@@ -74504,7 +74502,7 @@
       </c>
       <c r="H34" s="13"/>
       <c r="I34" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J34" s="13"/>
       <c r="K34" s="12">
@@ -74556,7 +74554,7 @@
       </c>
       <c r="H35" s="13"/>
       <c r="I35" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J35" s="13"/>
       <c r="K35" s="12">
@@ -74576,7 +74574,7 @@
       </c>
       <c r="R35" s="13"/>
       <c r="S35" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T35" s="13"/>
       <c r="U35" s="12">
@@ -74608,7 +74606,7 @@
       </c>
       <c r="H36" s="13"/>
       <c r="I36" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J36" s="13"/>
       <c r="K36" s="12">
@@ -74666,10 +74664,10 @@
         <v>80</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K37" s="12">
         <v>25</v>
@@ -74730,11 +74728,11 @@
       </c>
       <c r="F38" s="13"/>
       <c r="G38" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H38" s="13"/>
       <c r="I38" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J38" s="13"/>
       <c r="K38" s="12">
@@ -74754,7 +74752,7 @@
       </c>
       <c r="R38" s="13"/>
       <c r="S38" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T38" s="13"/>
       <c r="U38" s="12">
@@ -74774,11 +74772,11 @@
         <v>27</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F39" s="13"/>
       <c r="G39" s="12">
@@ -74786,7 +74784,7 @@
       </c>
       <c r="H39" s="13"/>
       <c r="I39" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J39" s="13"/>
       <c r="K39" s="12">
@@ -74826,7 +74824,7 @@
         <v>64</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="12">
@@ -74838,7 +74836,7 @@
       </c>
       <c r="H40" s="13"/>
       <c r="I40" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J40" s="13"/>
       <c r="K40" s="12">
@@ -74858,7 +74856,7 @@
       </c>
       <c r="R40" s="13"/>
       <c r="S40" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T40" s="13"/>
       <c r="U40" s="12">
@@ -74896,10 +74894,10 @@
         <v>13</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J41" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K41" s="12">
         <v>7</v>
@@ -74964,7 +74962,7 @@
       </c>
       <c r="H42" s="13"/>
       <c r="I42" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J42" s="13"/>
       <c r="K42" s="12">
@@ -75016,7 +75014,7 @@
       </c>
       <c r="H43" s="13"/>
       <c r="I43" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J43" s="13"/>
       <c r="K43" s="12">
@@ -75060,7 +75058,7 @@
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F44" s="13"/>
       <c r="G44" s="12">
@@ -75068,7 +75066,7 @@
       </c>
       <c r="H44" s="13"/>
       <c r="I44" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J44" s="13"/>
       <c r="K44" s="12">
@@ -75088,7 +75086,7 @@
       </c>
       <c r="R44" s="13"/>
       <c r="S44" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T44" s="13"/>
       <c r="U44" s="12">
@@ -75114,7 +75112,7 @@
         <v>8</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F45" s="13">
         <v>9</v>
@@ -75126,10 +75124,10 @@
         <v>9</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J45" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K45" s="12">
         <v>56</v>
@@ -75182,7 +75180,7 @@
         <v>16</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="12">
@@ -75210,11 +75208,11 @@
       </c>
       <c r="P46" s="13"/>
       <c r="Q46" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="R46" s="13"/>
       <c r="S46" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T46" s="13"/>
       <c r="U46" s="12">
@@ -75238,7 +75236,7 @@
       </c>
       <c r="D47" s="13"/>
       <c r="E47" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F47" s="13"/>
       <c r="G47" s="12">
@@ -75246,7 +75244,7 @@
       </c>
       <c r="H47" s="13"/>
       <c r="I47" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J47" s="13"/>
       <c r="K47" s="12">
@@ -75290,7 +75288,7 @@
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F48" s="13"/>
       <c r="G48" s="12">
@@ -75476,7 +75474,7 @@
       </c>
       <c r="H51" s="13"/>
       <c r="I51" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J51" s="13"/>
       <c r="K51" s="12">
@@ -75586,7 +75584,7 @@
         <v>110</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J53" s="13">
         <v>3</v>
@@ -75654,7 +75652,7 @@
       </c>
       <c r="H54" s="13"/>
       <c r="I54" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J54" s="13"/>
       <c r="K54" s="12">
@@ -75750,7 +75748,7 @@
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F56" s="13"/>
       <c r="G56" s="12">
@@ -75816,7 +75814,7 @@
         <v>91</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J57" s="13">
         <v>4</v>
@@ -75956,7 +75954,7 @@
     </row>
     <row r="61" spans="1:24">
       <c r="B61" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="C61" t="s">
         <v>36</v>
@@ -75978,16 +75976,11 @@
         <v>266</v>
       </c>
       <c r="C63" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
     <mergeCell ref="B1:X1"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:D3"/>
@@ -76000,6 +75993,11 @@
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:X59">
     <cfRule type="expression" dxfId="2" priority="1">
@@ -76301,7 +76299,7 @@
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J7" s="13"/>
       <c r="K7" s="12">
@@ -76317,7 +76315,7 @@
       </c>
       <c r="P7" s="13"/>
       <c r="Q7" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="R7" s="13"/>
       <c r="S7" s="12">
@@ -76353,7 +76351,7 @@
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="12">
@@ -76411,7 +76409,7 @@
         <v>163</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J9" s="13">
         <v>3</v>
@@ -76479,7 +76477,7 @@
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J10" s="13"/>
       <c r="K10" s="12">
@@ -76531,7 +76529,7 @@
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J11" s="13"/>
       <c r="K11" s="12">
@@ -76583,7 +76581,7 @@
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J12" s="13"/>
       <c r="K12" s="12">
@@ -76725,7 +76723,7 @@
       </c>
       <c r="P14" s="13"/>
       <c r="Q14" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="R14" s="13"/>
       <c r="S14" s="12">
@@ -76829,7 +76827,7 @@
       </c>
       <c r="P16" s="13"/>
       <c r="Q16" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="R16" s="13"/>
       <c r="S16" s="12">
@@ -76871,7 +76869,7 @@
         <v>232</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J17" s="13">
         <v>4</v>
@@ -76895,13 +76893,13 @@
         <v>172</v>
       </c>
       <c r="Q17" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="R17" s="13">
         <v>1</v>
       </c>
       <c r="S17" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T17" s="13">
         <v>51</v>
@@ -76927,7 +76925,7 @@
         <v>71</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="12">
@@ -76959,7 +76957,7 @@
       </c>
       <c r="R18" s="13"/>
       <c r="S18" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T18" s="13"/>
       <c r="U18" s="12">
@@ -76991,7 +76989,7 @@
       </c>
       <c r="H19" s="13"/>
       <c r="I19" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J19" s="13"/>
       <c r="K19" s="12">
@@ -77007,11 +77005,11 @@
       </c>
       <c r="P19" s="13"/>
       <c r="Q19" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="R19" s="13"/>
       <c r="S19" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T19" s="13"/>
       <c r="U19" s="12">
@@ -77043,7 +77041,7 @@
       </c>
       <c r="H20" s="13"/>
       <c r="I20" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J20" s="13"/>
       <c r="K20" s="12">
@@ -77059,11 +77057,11 @@
       </c>
       <c r="P20" s="13"/>
       <c r="Q20" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="R20" s="13"/>
       <c r="S20" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T20" s="13"/>
       <c r="U20" s="12">
@@ -77125,16 +77123,16 @@
         <v>96</v>
       </c>
       <c r="Q21" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="R21" s="13">
         <v>15</v>
       </c>
       <c r="S21" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T21" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="U21" s="12">
         <v>71</v>
@@ -77189,7 +77187,7 @@
       </c>
       <c r="R22" s="13"/>
       <c r="S22" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T22" s="13"/>
       <c r="U22" s="12">
@@ -77221,7 +77219,7 @@
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J23" s="13"/>
       <c r="K23" s="12">
@@ -77241,7 +77239,7 @@
       </c>
       <c r="R23" s="13"/>
       <c r="S23" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T23" s="13"/>
       <c r="U23" s="12">
@@ -77273,7 +77271,7 @@
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J24" s="13"/>
       <c r="K24" s="12">
@@ -77293,7 +77291,7 @@
       </c>
       <c r="R24" s="13"/>
       <c r="S24" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T24" s="13"/>
       <c r="U24" s="12">
@@ -77331,7 +77329,7 @@
         <v>61</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J25" s="13">
         <v>1</v>
@@ -77361,10 +77359,10 @@
         <v>13</v>
       </c>
       <c r="S25" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T25" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="U25" s="12">
         <v>82</v>
@@ -77399,7 +77397,7 @@
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J26" s="13"/>
       <c r="K26" s="12">
@@ -77419,7 +77417,7 @@
       </c>
       <c r="R26" s="13"/>
       <c r="S26" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T26" s="13"/>
       <c r="U26" s="12">
@@ -77451,7 +77449,7 @@
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J27" s="13"/>
       <c r="K27" s="12">
@@ -77471,7 +77469,7 @@
       </c>
       <c r="R27" s="13"/>
       <c r="S27" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T27" s="13"/>
       <c r="U27" s="12">
@@ -77503,7 +77501,7 @@
       </c>
       <c r="H28" s="13"/>
       <c r="I28" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J28" s="13"/>
       <c r="K28" s="12">
@@ -77523,7 +77521,7 @@
       </c>
       <c r="R28" s="13"/>
       <c r="S28" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T28" s="13"/>
       <c r="U28" s="12">
@@ -77561,10 +77559,10 @@
         <v>174</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K29" s="12">
         <v>103</v>
@@ -77585,16 +77583,16 @@
         <v>78</v>
       </c>
       <c r="Q29" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="R29" s="13">
         <v>4</v>
       </c>
       <c r="S29" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T29" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="U29" s="12">
         <v>100</v>
@@ -77617,7 +77615,7 @@
         <v>47</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="12">
@@ -77649,7 +77647,7 @@
       </c>
       <c r="R30" s="13"/>
       <c r="S30" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T30" s="13"/>
       <c r="U30" s="12">
@@ -77701,7 +77699,7 @@
       </c>
       <c r="R31" s="13"/>
       <c r="S31" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T31" s="13"/>
       <c r="U31" s="12">
@@ -77753,7 +77751,7 @@
       </c>
       <c r="R32" s="13"/>
       <c r="S32" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T32" s="13"/>
       <c r="U32" s="12">
@@ -77791,7 +77789,7 @@
         <v>71</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J33" s="13">
         <v>6</v>
@@ -77821,10 +77819,10 @@
         <v>26</v>
       </c>
       <c r="S33" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T33" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="U33" s="12">
         <v>41</v>
@@ -77875,11 +77873,11 @@
       </c>
       <c r="P34" s="13"/>
       <c r="Q34" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="R34" s="13"/>
       <c r="S34" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T34" s="13"/>
       <c r="U34" s="12">
@@ -77911,7 +77909,7 @@
       </c>
       <c r="H35" s="13"/>
       <c r="I35" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J35" s="13"/>
       <c r="K35" s="12">
@@ -77931,7 +77929,7 @@
       </c>
       <c r="R35" s="13"/>
       <c r="S35" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T35" s="13"/>
       <c r="U35" s="12">
@@ -77963,7 +77961,7 @@
       </c>
       <c r="H36" s="13"/>
       <c r="I36" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J36" s="13"/>
       <c r="K36" s="12">
@@ -77983,7 +77981,7 @@
       </c>
       <c r="R36" s="13"/>
       <c r="S36" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T36" s="13"/>
       <c r="U36" s="12">
@@ -78051,10 +78049,10 @@
         <v>7</v>
       </c>
       <c r="S37" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T37" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="U37" s="12">
         <v>16</v>
@@ -78089,7 +78087,7 @@
       </c>
       <c r="H38" s="13"/>
       <c r="I38" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J38" s="13"/>
       <c r="K38" s="12">
@@ -78105,11 +78103,11 @@
       </c>
       <c r="P38" s="13"/>
       <c r="Q38" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="R38" s="13"/>
       <c r="S38" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T38" s="13"/>
       <c r="U38" s="12">
@@ -78141,7 +78139,7 @@
       </c>
       <c r="H39" s="13"/>
       <c r="I39" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J39" s="13"/>
       <c r="K39" s="12">
@@ -78161,7 +78159,7 @@
       </c>
       <c r="R39" s="13"/>
       <c r="S39" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T39" s="13"/>
       <c r="U39" s="12">
@@ -78185,15 +78183,15 @@
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F40" s="13"/>
       <c r="G40" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H40" s="13"/>
       <c r="I40" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J40" s="13"/>
       <c r="K40" s="12">
@@ -78213,7 +78211,7 @@
       </c>
       <c r="R40" s="13"/>
       <c r="S40" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T40" s="13"/>
       <c r="U40" s="12">
@@ -78239,7 +78237,7 @@
         <v>19</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F41" s="13">
         <v>17</v>
@@ -78251,10 +78249,10 @@
         <v>21</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J41" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K41" s="12">
         <v>16</v>
@@ -78275,16 +78273,16 @@
         <v>13</v>
       </c>
       <c r="Q41" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="R41" s="13">
         <v>5</v>
       </c>
       <c r="S41" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T41" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="U41" s="12">
         <v>14</v>
@@ -78319,7 +78317,7 @@
       </c>
       <c r="H42" s="13"/>
       <c r="I42" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J42" s="13"/>
       <c r="K42" s="12">
@@ -78335,11 +78333,11 @@
       </c>
       <c r="P42" s="13"/>
       <c r="Q42" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="R42" s="13"/>
       <c r="S42" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T42" s="13"/>
       <c r="U42" s="12">
@@ -78371,7 +78369,7 @@
       </c>
       <c r="H43" s="13"/>
       <c r="I43" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J43" s="13"/>
       <c r="K43" s="12">
@@ -78387,11 +78385,11 @@
       </c>
       <c r="P43" s="13"/>
       <c r="Q43" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="R43" s="13"/>
       <c r="S43" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T43" s="13"/>
       <c r="U43" s="12">
@@ -78423,7 +78421,7 @@
       </c>
       <c r="H44" s="13"/>
       <c r="I44" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J44" s="13"/>
       <c r="K44" s="12">
@@ -78443,7 +78441,7 @@
       </c>
       <c r="R44" s="13"/>
       <c r="S44" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T44" s="13"/>
       <c r="U44" s="12">
@@ -78481,10 +78479,10 @@
         <v>47</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J45" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K45" s="12">
         <v>63</v>
@@ -78505,16 +78503,16 @@
         <v>27</v>
       </c>
       <c r="Q45" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="R45" s="13">
         <v>5</v>
       </c>
       <c r="S45" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T45" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="U45" s="12">
         <v>51</v>
@@ -78569,7 +78567,7 @@
       </c>
       <c r="R46" s="13"/>
       <c r="S46" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T46" s="13"/>
       <c r="U46" s="12">
@@ -78601,7 +78599,7 @@
       </c>
       <c r="H47" s="13"/>
       <c r="I47" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J47" s="13"/>
       <c r="K47" s="12">
@@ -78621,7 +78619,7 @@
       </c>
       <c r="R47" s="13"/>
       <c r="S47" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T47" s="13"/>
       <c r="U47" s="12">
@@ -78645,7 +78643,7 @@
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F48" s="13"/>
       <c r="G48" s="12">
@@ -78653,7 +78651,7 @@
       </c>
       <c r="H48" s="13"/>
       <c r="I48" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J48" s="13"/>
       <c r="K48" s="12">
@@ -78673,7 +78671,7 @@
       </c>
       <c r="R48" s="13"/>
       <c r="S48" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T48" s="13"/>
       <c r="U48" s="12">
@@ -78711,7 +78709,7 @@
         <v>58</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J49" s="13">
         <v>7</v>
@@ -78741,10 +78739,10 @@
         <v>12</v>
       </c>
       <c r="S49" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T49" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="U49" s="12">
         <v>64</v>
@@ -78779,7 +78777,7 @@
       </c>
       <c r="H50" s="13"/>
       <c r="I50" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J50" s="13"/>
       <c r="K50" s="12">
@@ -78799,7 +78797,7 @@
       </c>
       <c r="R50" s="13"/>
       <c r="S50" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T50" s="13"/>
       <c r="U50" s="12">
@@ -78851,7 +78849,7 @@
       </c>
       <c r="R51" s="13"/>
       <c r="S51" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T51" s="13"/>
       <c r="U51" s="12">
@@ -78883,7 +78881,7 @@
       </c>
       <c r="H52" s="13"/>
       <c r="I52" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J52" s="13"/>
       <c r="K52" s="12">
@@ -78903,7 +78901,7 @@
       </c>
       <c r="R52" s="13"/>
       <c r="S52" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T52" s="13"/>
       <c r="U52" s="12">
@@ -78941,7 +78939,7 @@
         <v>122</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J53" s="13">
         <v>4</v>
@@ -78971,10 +78969,10 @@
         <v>34</v>
       </c>
       <c r="S53" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T53" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="U53" s="12">
         <v>231</v>
@@ -79009,7 +79007,7 @@
       </c>
       <c r="H54" s="13"/>
       <c r="I54" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J54" s="13"/>
       <c r="K54" s="12">
@@ -79025,11 +79023,11 @@
       </c>
       <c r="P54" s="13"/>
       <c r="Q54" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="R54" s="13"/>
       <c r="S54" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T54" s="13"/>
       <c r="U54" s="12">
@@ -79053,7 +79051,7 @@
       </c>
       <c r="D55" s="13"/>
       <c r="E55" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F55" s="13"/>
       <c r="G55" s="12">
@@ -79081,7 +79079,7 @@
       </c>
       <c r="R55" s="13"/>
       <c r="S55" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T55" s="13"/>
       <c r="U55" s="12">
@@ -79113,7 +79111,7 @@
       </c>
       <c r="H56" s="13"/>
       <c r="I56" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J56" s="13"/>
       <c r="K56" s="12">
@@ -79133,7 +79131,7 @@
       </c>
       <c r="R56" s="13"/>
       <c r="S56" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T56" s="13"/>
       <c r="U56" s="12">
@@ -79201,10 +79199,10 @@
         <v>10</v>
       </c>
       <c r="S57" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T57" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="U57" s="12">
         <v>74</v>
@@ -79313,7 +79311,7 @@
     </row>
     <row r="61" spans="1:24">
       <c r="B61" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="C61" t="s">
         <v>36</v>
@@ -79335,16 +79333,11 @@
         <v>266</v>
       </c>
       <c r="C63" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
     <mergeCell ref="B1:X1"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:D3"/>
@@ -79357,6 +79350,11 @@
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:X59">
     <cfRule type="expression" dxfId="1" priority="1">
@@ -81130,11 +81128,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="C62:D62"/>
     <mergeCell ref="B1:X1"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="A60:F60"/>
@@ -81147,6 +81140,11 @@
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="O3:P3"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="C62:D62"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:X59">
     <cfRule type="expression" dxfId="0" priority="1">
@@ -83642,7 +83640,7 @@
     </row>
     <row r="61" spans="1:22">
       <c r="B61" s="28" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="C61" s="28" t="s">
         <v>36</v>
@@ -83654,7 +83652,7 @@
         <v>16</v>
       </c>
       <c r="C62" s="32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D62" s="32"/>
     </row>
@@ -83663,7 +83661,7 @@
         <v>266</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D63" s="28"/>
     </row>
@@ -86140,7 +86138,7 @@
     </row>
     <row r="61" spans="1:22">
       <c r="B61" s="28" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="C61" s="28" t="s">
         <v>36</v>
@@ -86152,7 +86150,7 @@
         <v>16</v>
       </c>
       <c r="C62" s="32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D62" s="32"/>
     </row>
@@ -86161,7 +86159,7 @@
         <v>266</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D63" s="28"/>
     </row>
@@ -88642,7 +88640,7 @@
     </row>
     <row r="61" spans="1:22">
       <c r="B61" s="28" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="C61" s="28" t="s">
         <v>36</v>
@@ -88654,7 +88652,7 @@
         <v>16</v>
       </c>
       <c r="C62" s="32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D62" s="32"/>
     </row>
@@ -88663,7 +88661,7 @@
         <v>266</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D63" s="28"/>
     </row>
@@ -91172,7 +91170,7 @@
     </row>
     <row r="61" spans="1:22">
       <c r="B61" s="28" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="C61" s="28" t="s">
         <v>36</v>
@@ -91184,7 +91182,7 @@
         <v>16</v>
       </c>
       <c r="C62" s="32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D62" s="32"/>
     </row>
@@ -91193,7 +91191,7 @@
         <v>266</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D63" s="28"/>
     </row>
@@ -93690,7 +93688,7 @@
     </row>
     <row r="61" spans="1:22">
       <c r="B61" s="28" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="C61" s="28" t="s">
         <v>36</v>
@@ -93702,7 +93700,7 @@
         <v>16</v>
       </c>
       <c r="C62" s="32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D62" s="32"/>
     </row>
@@ -93711,7 +93709,7 @@
         <v>266</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D63" s="28"/>
     </row>
@@ -96208,7 +96206,7 @@
     </row>
     <row r="61" spans="1:22">
       <c r="B61" s="28" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="C61" s="28" t="s">
         <v>36</v>
@@ -96220,7 +96218,7 @@
         <v>16</v>
       </c>
       <c r="C62" s="32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D62" s="32"/>
     </row>
@@ -96229,7 +96227,7 @@
         <v>266</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D63" s="28"/>
     </row>
